--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theki\Documents\UnityProject\ZombieSimul\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F_Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Qid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -76,13 +72,17 @@
   </si>
   <si>
     <t>돈까스말고 삼겹살 어때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Face</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -459,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,19 +477,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theki\Documents\UnityProject\ZombieSimul\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
     <sheet name="Answer" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="482">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -428,9 +423,6 @@
     <t>우웁...알았어 이리와봐 자기….우웨웨에에에에엑!</t>
   </si>
   <si>
-    <t>정신차리고 창밖을 봐. 지금 키스할 때가 아냐.</t>
-  </si>
-  <si>
     <t>그걸 말이라고…당연한 거 아냐?</t>
   </si>
   <si>
@@ -519,12 +511,975 @@
   </si>
   <si>
     <t>군필자의 직감인데@ 저걸 따러 갔다간 큰일이 날 것 같아.</t>
+  </si>
+  <si>
+    <t>꿈이였으면 좋겠다…</t>
+  </si>
+  <si>
+    <t>목말라…</t>
+  </si>
+  <si>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>한조</t>
+  </si>
+  <si>
+    <t>외로워…</t>
+  </si>
+  <si>
+    <t>울고 싶은데 눈물이 안나…</t>
+  </si>
+  <si>
+    <t>지금 기분이 어때?</t>
+  </si>
+  <si>
+    <t>확실히 내 피부색…예전이랑은 많이 다르지?</t>
+  </si>
+  <si>
+    <t>나는 아직 배고프다!</t>
+  </si>
+  <si>
+    <t>난 왜 이렇게 궁금한게 많을까?</t>
+  </si>
+  <si>
+    <t>왜 자기는 시대의 흐름을 보지 못하는 거야?</t>
+  </si>
+  <si>
+    <t>지금 당장 1억이 생기면 뭐 할거야?</t>
+  </si>
+  <si>
+    <t>오늘이 무슨 날인지 알아?</t>
+  </si>
+  <si>
+    <t>당신은~</t>
+  </si>
+  <si>
+    <t>우리가 만난 건 운명이였을까?</t>
+  </si>
+  <si>
+    <t>저 나뭇잎이 떨어지면 나도 좀비가 될까?</t>
+  </si>
+  <si>
+    <t>저쪽에 뭔가 이상한게 보이는거 같아. 저거 보여?</t>
+  </si>
+  <si>
+    <t>사후세계를 믿어?</t>
+  </si>
+  <si>
+    <t>아이스크림 먹고싶다.</t>
+  </si>
+  <si>
+    <t>먹은게 소화는 잘 되긴 하는걸까…</t>
+  </si>
+  <si>
+    <t>아직은 자기를 잡아먹진 않을 거 같아.</t>
+  </si>
+  <si>
+    <t>좀비가 술을 마시면 어떻게 될까?</t>
+  </si>
+  <si>
+    <t>크…크큭….흑화한다….</t>
+  </si>
+  <si>
+    <t>거짓말하다 걸리면 손모가지 날아간다는 거 배운 적 있어?</t>
+  </si>
+  <si>
+    <t>감각들이 예전이랑은 많이 틀려. 정말 좀비가 되는걸까?</t>
+  </si>
+  <si>
+    <t>이보시요 남친양반. 내 몸에 감각이 없소!</t>
+  </si>
+  <si>
+    <t>어릴 때는 다락방같은 데 정말 좋아했어. 자기도 그랬어?</t>
+  </si>
+  <si>
+    <t>들어올 때는 맘대로였지만 나갈 때는 아닌거 같아…</t>
+  </si>
+  <si>
+    <t>좀비도 죽으면 천국이나 지옥으로 가게 될까?</t>
+  </si>
+  <si>
+    <t>떨어져나간 내 살점을 구워먹으면 맛있을까?</t>
+  </si>
+  <si>
+    <t>너의 췌장을 먹고 싶어.</t>
+  </si>
+  <si>
+    <t>좀비한테 물리면 약도 없대. 자기도 조심해야 해.</t>
+  </si>
+  <si>
+    <t>수틀리면 확 물어버릴거야. 조심해!</t>
+  </si>
+  <si>
+    <t>으흐흐흐흐흐흐흐흐….이렇게 웃으니까 나 무섭지?</t>
+  </si>
+  <si>
+    <t>내가 죽으면 내 시체는 어떻게 할 거야?</t>
+  </si>
+  <si>
+    <t>좀비가 되어도 눈에서 레이져 같은 건 안나가는구나…</t>
+  </si>
+  <si>
+    <t>가만히 자리에 누워 눈을 감아봐. 잠이 잘 올거야.</t>
+  </si>
+  <si>
+    <t>나처럼 아직 정신이 멀쩡한 좀비가 또 있을까?</t>
+  </si>
+  <si>
+    <t>배는 그렇게 고프지 않지만@ 자꾸 사람을 깨물고만 싶어져.</t>
+  </si>
+  <si>
+    <t>내가 다 애정이 있어서 그런거야…가만히 있어봐.</t>
+  </si>
+  <si>
+    <t>양념? 후라이드?</t>
+  </si>
+  <si>
+    <t>영화 보면 좀비들은 엄청 빠르던데 다 거짓말같아.</t>
+  </si>
+  <si>
+    <t>뚫훍뚫훍뚫 뚫훍뚫훍뚫 뚫훍뚫훍뚫 따다다</t>
+  </si>
+  <si>
+    <t>옆비싼 허리까운</t>
+  </si>
+  <si>
+    <t>나 가끔 방언 터진 것 처럼 이상한 말들 막 하고 그러지 않아?</t>
+  </si>
+  <si>
+    <t>그래도 이는 아직 멀쩡한거 같아.</t>
+  </si>
+  <si>
+    <t>좀비와 언데드의 차이는 뭘까?</t>
+  </si>
+  <si>
+    <t>여러 분 이거 다~</t>
+  </si>
+  <si>
+    <t>인간들아! 무엇이 알고 싶으냐!</t>
+  </si>
+  <si>
+    <t>왈왈왈!</t>
+  </si>
+  <si>
+    <t>평생 이렇게 함께 있고 싶어.</t>
+  </si>
+  <si>
+    <t>힘이 조금은 세진 것 같아. 나랑 팔씨름 한번 해 볼래?</t>
+  </si>
+  <si>
+    <t>가슴이 답답하고 우울할 땐 어떻게 해?</t>
+  </si>
+  <si>
+    <t>저번에 같이 봤던 영화 반전내용 기억나?</t>
+  </si>
+  <si>
+    <t>우리가 사는 세상은 사실 누군가에 의해 만들어진 게 아닐까?</t>
+  </si>
+  <si>
+    <t>사실 나는 북한에서 파견된 공작원이야.</t>
+  </si>
+  <si>
+    <t>어쩌면 이거@ 좀비가 아니라 신내림을 받은 증거가 아닐까?</t>
+  </si>
+  <si>
+    <t>피…피가 모자라….꾸어어어어어어어어!</t>
+  </si>
+  <si>
+    <t>내 다리 내놔!!!</t>
+  </si>
+  <si>
+    <t>피부 톤이 별로 마음에 들지 않는데…다시 칠할 수는 없겠지?</t>
+  </si>
+  <si>
+    <t>왕이 요리를 하면 뭔지 알아?</t>
+  </si>
+  <si>
+    <t>std::cout &lt;&lt; "Hello World" &lt;&lt; std::endl;</t>
+  </si>
+  <si>
+    <t>여우는 어떻게 우는지 알아?</t>
+  </si>
+  <si>
+    <t>좀비는 방사능에 노출되어도 괜찮겠지?</t>
+  </si>
+  <si>
+    <t>참고로 난 서전트 점프가 1미터야.</t>
+  </si>
+  <si>
+    <t>눈물을 흘리는 좀비@ 본 적 없지?</t>
+  </si>
+  <si>
+    <t>내가 좀비인건 사실이지만@ 날 좀비라고 놀리는 건 참을 수 없어!</t>
+  </si>
+  <si>
+    <t>내 안에 잠들어있는 흑염룡이 날뛰는 것 같아.</t>
+  </si>
+  <si>
+    <t>폭주랑 흑화 둘 중에 어떤 게 더 마음에 들어?</t>
+  </si>
+  <si>
+    <t>얼마전에 고기집 갔을 때 메뉴판에 써 있던거 기억나?</t>
+  </si>
+  <si>
+    <t>사랑에 유통기한이 있다면@ 얼마정도가 좋을까?</t>
+  </si>
+  <si>
+    <t>아직 살점이 썩어 문드러지는 정도는 아니라 다행이야.</t>
+  </si>
+  <si>
+    <t>나랑 사귀면서 헤어지고 싶었던 적 있었어?</t>
+  </si>
+  <si>
+    <t>배 안고파?</t>
+  </si>
+  <si>
+    <t>이리로 들어오도록 해.</t>
+  </si>
+  <si>
+    <t>좀비가 되고 나니@ 왠지 정원에는 들어가면 안될 것 같은 기분이 들어.</t>
+  </si>
+  <si>
+    <t>안녕하신가. 힘세고 강한 아침. 만일 내게 물으면 나는 좀비!</t>
+  </si>
+  <si>
+    <t>그나마 다른 좀비들한테 습격당하지 않아 다행이야.</t>
+  </si>
+  <si>
+    <t>이 구역의 미친 좀비는 나야!</t>
+  </si>
+  <si>
+    <t>흐…흥…딱히 자기가 맛이 없어서 안먹는 건 아니라구!</t>
+  </si>
+  <si>
+    <t>정신차리고 주변을 봐. 지금 키스할 때가 아냐.</t>
+  </si>
+  <si>
+    <t>그러게…</t>
+  </si>
+  <si>
+    <t>눈이라도 좀 감고 있을래?</t>
+  </si>
+  <si>
+    <t>아 ㅅㅂ 꿈…</t>
+  </si>
+  <si>
+    <t>이제 여기엔 남은 물이 없어.</t>
+  </si>
+  <si>
+    <t>근처에 물이 있는지 살펴보고 올게.</t>
+  </si>
+  <si>
+    <t>사딸라…</t>
+  </si>
+  <si>
+    <t>을 외워보자. 야발라기히야~ 야발라기히야~</t>
+  </si>
+  <si>
+    <t>피청구인 대통령 박(삐-)를 파면한다.</t>
+  </si>
+  <si>
+    <t>시전에 실패했습니다.</t>
+  </si>
+  <si>
+    <t>각</t>
+  </si>
+  <si>
+    <t>픽픽픽~ 트롤픽하나~</t>
+  </si>
+  <si>
+    <t>대기중</t>
+  </si>
+  <si>
+    <t>내가 외로울 때면 누가 위로해주지?</t>
+  </si>
+  <si>
+    <t>도 슬퍼도 나는 안울어~ 참고참고 또 참지 울긴 왜울어~</t>
+  </si>
+  <si>
+    <t>외로워 마세요~ 사는 게 다 그런거지~</t>
+  </si>
+  <si>
+    <t>산타 할아버지한테 선물 많이 받을 수 있겠구나?</t>
+  </si>
+  <si>
+    <t>물 마신게 별로 없어서 그럴거야.</t>
+  </si>
+  <si>
+    <t>이런 피도 눈물도 없는 좀비같으니…아…피는 있구나.</t>
+  </si>
+  <si>
+    <t>어서 이 끔찍한 악몽에서 깨어날 수 있었으면 좋겠어.</t>
+  </si>
+  <si>
+    <t>그래도 아직은 네 품이 따뜻해서 다행이야.</t>
+  </si>
+  <si>
+    <t>나는 아무런 생각이 없다. 왜냐면 아무런 생각이 없기 때문이다.</t>
+  </si>
+  <si>
+    <t>피부색이 달라도 넌 변함없이 예뻐.</t>
+  </si>
+  <si>
+    <t>조금 특별한 선탠을 했다고 생각하자구.</t>
+  </si>
+  <si>
+    <t>색놀이 스킨 씌운거 같아.</t>
+  </si>
+  <si>
+    <t>이제 먹을 게 그리 많지 않아. 아껴 먹어야 해.</t>
+  </si>
+  <si>
+    <t>지금의 너와 결혼한다면@ 식비때문에 등골이 휘어질거야.</t>
+  </si>
+  <si>
+    <t>니가 히딩크냐?</t>
+  </si>
+  <si>
+    <t>세상이 넓은 만큼 궁금한 것도 널려있으니까.</t>
+  </si>
+  <si>
+    <t>아버지 날 보고 있다면 정답을 알려줘.</t>
+  </si>
+  <si>
+    <t>그래서 먹고싶은 것도 많나봐….</t>
+  </si>
+  <si>
+    <t>난 죽음을 경험한 적이 없네!</t>
+  </si>
+  <si>
+    <t>너에게 라크쉬르를 신청한다!</t>
+  </si>
+  <si>
+    <t>니가 바로 칼날 여왕이다!</t>
+  </si>
+  <si>
+    <t>10000연속 가챠!</t>
+  </si>
+  <si>
+    <t>내일이 어떻게 바뀔 지 모르니@ 일단 가지고 있어봐야지.</t>
+  </si>
+  <si>
+    <t>지폐로 바꿔서 불이나 떼야지.</t>
+  </si>
+  <si>
+    <t>네 생일은 아닌거 같은데…기념일도 아니고…</t>
+  </si>
+  <si>
+    <t>그냥 오늘도 평범한 하루야. 너와 함께하는 보통의 하루…</t>
+  </si>
+  <si>
+    <t>어제 죽은 자가 그토록 살고 싶어했던 내일이지.</t>
+  </si>
+  <si>
+    <t>사랑받기 위해 태어난 사람</t>
+  </si>
+  <si>
+    <t>죽을 수도 있습니다.</t>
+  </si>
+  <si>
+    <t>누구세요?</t>
+  </si>
+  <si>
+    <t>우리 만남은 우연이 아니야. 그것은 우리의 바램이였어.</t>
+  </si>
+  <si>
+    <t>저주받은 운명을 사는 비극의 주인공이 바로 나 아닐까?</t>
+  </si>
+  <si>
+    <t>이건 우리 운명이….아니였는데…</t>
+  </si>
+  <si>
+    <t>나뭇잎 마을의 통수는 두번 친다고 하지.</t>
+  </si>
+  <si>
+    <t>떨어진 나뭇잎은 다시 붙이면 돼.</t>
+  </si>
+  <si>
+    <t>나뭇잎위키 꺼라.</t>
+  </si>
+  <si>
+    <t>그냥 나뭇가지에 연이 걸린 것 뿐이야. 별거 아냐.</t>
+  </si>
+  <si>
+    <t>아무것도 없어. 난 뒤통수에도 눈이 있어서 다 볼 수 있다고.</t>
+  </si>
+  <si>
+    <t>저격수다! 얼른 몸을 숙여!</t>
+  </si>
+  <si>
+    <t>죽어본 적이 없어서 잘 모르겠어.</t>
+  </si>
+  <si>
+    <t>좀비가 된 사람도 사후세계로 갈 수 있겠지?</t>
+  </si>
+  <si>
+    <t>믿는 도끼에 발등 찍혀본 적 있어?</t>
+  </si>
+  <si>
+    <t>올 때 메○나!</t>
+  </si>
+  <si>
+    <t>하겐○즈!</t>
+  </si>
+  <si>
+    <t>난! 엄마는 외계인!</t>
+  </si>
+  <si>
+    <t>다시 게워낸 적은 없는 걸 보니 대체적으로 그런 것 같아.</t>
+  </si>
+  <si>
+    <t>화장실은 다녀왔어?</t>
+  </si>
+  <si>
+    <t>좀비는 에너지를 엄청 효율적으로 쓰는 게 아닐까?</t>
+  </si>
+  <si>
+    <t>배가 고프면 이야기를 해. 나는 아직 버틸만하니까.</t>
+  </si>
+  <si>
+    <t>온전히 잡아먹히기 전에 나도 좀비가 되지 않을까?</t>
+  </si>
+  <si>
+    <t>그거 듣던 중 반가운 소리로군.</t>
+  </si>
+  <si>
+    <t>구토 빔이라도 발사할 것 같은데…</t>
+  </si>
+  <si>
+    <t>살짝 술에 취했을 때의 넌 참 귀여웠어.</t>
+  </si>
+  <si>
+    <t>지나친 음주는 알코올 중독을 유발할 수 있습니다.</t>
+  </si>
+  <si>
+    <t>저기…입가에 흐르는 침부터 좀 닦고 이야기하면 안될까?</t>
+  </si>
+  <si>
+    <t>과…과연…이것이 흑염룡을 두른 자의 힘인가!</t>
+  </si>
+  <si>
+    <t>흑역사를 갱신하는 건 좀비일 때도 변함이 없구나.</t>
+  </si>
+  <si>
+    <t>쫄리면 죽어야지….그치?</t>
+  </si>
+  <si>
+    <t>고니는 내가 본 사람 중에 최고의 타짜였어.</t>
+  </si>
+  <si>
+    <t>자기야 그 패 봐바. 사쿠라야?</t>
+  </si>
+  <si>
+    <t>실은 좀비가 아니라 초인계 열매를 복용한 게 아닐까?</t>
+  </si>
+  <si>
+    <t>곧 괜찮아 질거야. 조금만 더 힘을 내.</t>
+  </si>
+  <si>
+    <t>아니. 포도맛 인간이 된 걸지도 몰라.</t>
+  </si>
+  <si>
+    <t>전위대! 전위대!</t>
+  </si>
+  <si>
+    <t>X소리 집어치워! 무슨 감각이 없어진다는 거야!</t>
+  </si>
+  <si>
+    <t>선생께서는 이제 감각을 느끼실 수가 없게 되었습니다.</t>
+  </si>
+  <si>
+    <t>지금도 거기 올라가면 온갖 장난감들이 다 있을걸?</t>
+  </si>
+  <si>
+    <t>먼지만 잔뜩 쌓여서 퀘퀘한 냄새만 났었어 내 다락방은.</t>
+  </si>
+  <si>
+    <t>…이젠 아냐…</t>
+  </si>
+  <si>
+    <t>내 성 정체성은 확고해. 너랑 사귀는 걸 보면 알 수 있지!</t>
+  </si>
+  <si>
+    <t>젠장! 문이 잠겨있어!</t>
+  </si>
+  <si>
+    <t>찰지구나!</t>
+  </si>
+  <si>
+    <t>좀비도 악마라면 지옥에 가겠지…</t>
+  </si>
+  <si>
+    <t>최대한 해를 끼치지 않는다면 천국으로 갈 수도 있지 않을까?</t>
+  </si>
+  <si>
+    <t>그것이 바로 뒤틀린 어미요. 폐허에 더 많이 있소!</t>
+  </si>
+  <si>
+    <t>조직검사부터 의뢰한 후에 맛을 봐도 늦진 않을 것 같아.</t>
+  </si>
+  <si>
+    <t>…별로 상상하고 싶지 않아.</t>
+  </si>
+  <si>
+    <t>보라색 맛 났어!</t>
+  </si>
+  <si>
+    <t>그래도 암은 아니니까 다행…아닐까?</t>
+  </si>
+  <si>
+    <t>난 곱창이 더 땡긴다.</t>
+  </si>
+  <si>
+    <t>아주머니! 여기 막창 하나 추가요!</t>
+  </si>
+  <si>
+    <t>당장은 위험하겠지만@ 버텨보면 괜찮아지지 않을까?</t>
+  </si>
+  <si>
+    <t>니가 물면 나도 널 한입 물어버릴거야. 조심하라고!</t>
+  </si>
+  <si>
+    <t>괜찮아. 빨간약 얼큰하게 한잔 들이키면 되니까.</t>
+  </si>
+  <si>
+    <t>맹견주의</t>
+  </si>
+  <si>
+    <t>난 늘 틀어지지 않는 최선의 수를 두지. 후훗…</t>
+  </si>
+  <si>
+    <t>어디에다 대고 신성한 남친한테 협박질이야!</t>
+  </si>
+  <si>
+    <t>식은 땀은 조금 나지만@ 내색은 하지 않을게.</t>
+  </si>
+  <si>
+    <t>후훗…귀여운것…</t>
+  </si>
+  <si>
+    <t>으훼훼헤ㅔ헤헹헤헤헤ㅔㅎ헤케케ㅔㅋ케크컥...컥컥…크흠!</t>
+  </si>
+  <si>
+    <t>묻어줄까? 아니면 태워줄까?</t>
+  </si>
+  <si>
+    <t>시체는 넘어서 가야 제맛이지!</t>
+  </si>
+  <si>
+    <t>…그런 생각 하기 싫어.</t>
+  </si>
+  <si>
+    <t>...피콜로냐?</t>
+  </si>
+  <si>
+    <t>...마징가냐?</t>
+  </si>
+  <si>
+    <t>...슈퍼맨이냐?</t>
+  </si>
+  <si>
+    <t>나란히 눕지만 않는다면 잠을 청할 수 있을 것 같아.</t>
+  </si>
+  <si>
+    <t>좀비도 잠이 오는거야?</t>
+  </si>
+  <si>
+    <t>눈을 감는 그 순간이 내 생의 마지막 순간이겠지…</t>
+  </si>
+  <si>
+    <t>내가 본 좀비들 중에서는 유일하긴 해.</t>
+  </si>
+  <si>
+    <t>정신이 멀쩡한 건 좋지만…날 보며 입맛을 다시진 말아줘.</t>
+  </si>
+  <si>
+    <t>놓지마! 정○줄!</t>
+  </si>
+  <si>
+    <t>어허…사람 그렇게 무는거 아냐!</t>
+  </si>
+  <si>
+    <t>마침 개껌이 하나 있는데…이걸로 어느정도 해소가 될까?</t>
+  </si>
+  <si>
+    <t>수아레스? 타이슨? 원하는 걸로 불러줄게.</t>
+  </si>
+  <si>
+    <t>(가만히 있고 싶다.)</t>
+  </si>
+  <si>
+    <t>(가만히 있기 싫다.)</t>
+  </si>
+  <si>
+    <t>(도망간다.)</t>
+  </si>
+  <si>
+    <t>양념!</t>
+  </si>
+  <si>
+    <t>후라이드!</t>
+  </si>
+  <si>
+    <t>둘다!</t>
+  </si>
+  <si>
+    <t>이성의 끈을 미처 놓지 못해 그런게 아닐까?</t>
+  </si>
+  <si>
+    <t>자기도 발업하면 빨라져. 어떻게 하는건지는 묻지말고…</t>
+  </si>
+  <si>
+    <t>걔네들 다 스피드핵 써서 그래.</t>
+  </si>
+  <si>
+    <t>돌날라봤자 뚱배발이빴올리 뚜빞을빨하자 빨을렐예뺘아~</t>
+  </si>
+  <si>
+    <t xml:space="preserve">훈이야얄알안기라반기나이 베리나이야 청개구리야 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">술을열어볼래 해굿바람에비다야라 </t>
+  </si>
+  <si>
+    <t>싸움은 곗돈 싸움</t>
+  </si>
+  <si>
+    <t>서브 야전삽</t>
+  </si>
+  <si>
+    <t>탄냄비 천번 싸워염 냠냠짭찹 재미없다~!</t>
+  </si>
+  <si>
+    <t>그렇게 엉뚱한 면이 너무 귀여우니까 상관없어.</t>
+  </si>
+  <si>
+    <t>넌 평소에도 그랬어. 그때는 좀 덜하긴 했지만…</t>
+  </si>
+  <si>
+    <t>알긴 아는구나.</t>
+  </si>
+  <si>
+    <t>평소에 치아 관리를 잘 해서 그럴거야.</t>
+  </si>
+  <si>
+    <t>나한테는 좋지 않은 소식일지도 몰라.</t>
+  </si>
+  <si>
+    <t>임플란트가 좋긴 좋구나…</t>
+  </si>
+  <si>
+    <t>너처럼 말을 하는 좀비는 언데드에 가깝지 않을까?</t>
+  </si>
+  <si>
+    <t>원숭이와 인간의 차이랑 비슷하지 않을까?</t>
+  </si>
+  <si>
+    <t>그걸 알면 내가 여기 이러고 있을까…</t>
+  </si>
+  <si>
+    <t>다-다-다-다-다다다다다다다-스는 누구 겁니까?!</t>
+  </si>
+  <si>
+    <t>거짓말이야 입만 열면 아주 그냥!</t>
+  </si>
+  <si>
+    <t>스피드하게 물어볼게요. 다스는 누구겁니까?</t>
+  </si>
+  <si>
+    <t>빵상@ 깨라까랑</t>
+  </si>
+  <si>
+    <t>오~! 내가 인간세계에 와있으니 너무나도 행복하고 즐겁구나.</t>
+  </si>
+  <si>
+    <t>빵빵또로로롱똥동@ 우리존재 파이팅</t>
+  </si>
+  <si>
+    <t>늬들이 개…아니 게맛을 알아!</t>
+  </si>
+  <si>
+    <t>컹컹컹! ㅇ르르와오옹왕! 크왕컥...켁켁….</t>
+  </si>
+  <si>
+    <t>야!!!!!!!!!!!!! 개짖는 소리 좀 안나게 하라!</t>
+  </si>
+  <si>
+    <t>평생 날 물지 않는 조건이라면...좋아.</t>
+  </si>
+  <si>
+    <t>평생 함께 할 거라면@ 나도 좀비가 되는게 나을지도…</t>
+  </si>
+  <si>
+    <t>평생 이성을 유지한 채로 살 수 있을까 과연?</t>
+  </si>
+  <si>
+    <t>도전해 온다면 적당히 상대해줄 남자가 아니야@ 나는.</t>
+  </si>
+  <si>
+    <t>내가 여자랑 싸워서 져 본 적이 없는 사람이야.</t>
+  </si>
+  <si>
+    <t>지금의 너라면, 전력으로 패배할 자신이 있어.</t>
+  </si>
+  <si>
+    <t>난 슬플 땐 학춤을 춰.</t>
+  </si>
+  <si>
+    <t>산으로 올라가 소릴 한번 질러봐.</t>
+  </si>
+  <si>
+    <t>가까운 정신과 내방 후 상담을 추천합니다.</t>
+  </si>
+  <si>
+    <t>절름발이가 범인이야.</t>
+  </si>
+  <si>
+    <t>사실 다스베이더는 루크의 아버지였지.</t>
+  </si>
+  <si>
+    <t>브루스 윌리스가 귀신이다!</t>
+  </si>
+  <si>
+    <t>말도 안되는 소릴….</t>
+  </si>
+  <si>
+    <t>하늘에 커서나 손가락이 없는 걸 보니 그건 아닌 것 같아.</t>
+  </si>
+  <si>
+    <t>(…너무 많은 것을 알고 있다. 어떻게 할까요@ 플레이어님?)</t>
+  </si>
+  <si>
+    <t>사실 나는 정의의 히어로야.</t>
+  </si>
+  <si>
+    <t>사실 나는 군필 여고생이이야.</t>
+  </si>
+  <si>
+    <t>사실 나는 우리 엄마 아들이야.</t>
+  </si>
+  <si>
+    <t>과연 그 발로 작두를 멀쩡하게 탈 수 있을까?</t>
+  </si>
+  <si>
+    <t>다음주 로또번호 좀 알려줘봐.</t>
+  </si>
+  <si>
+    <t>한치앞도 몰라 다 안다면 재미없지.</t>
+  </si>
+  <si>
+    <t>앞으로 선지해장국은 손도 못댈 것 같아…</t>
+  </si>
+  <si>
+    <t>미안. 혈액형 때문에 내가 별 도움은 못되겠구나.</t>
+  </si>
+  <si>
+    <t>네놈의 피는 무슨색이냐!!!!!</t>
+  </si>
+  <si>
+    <t>이 금으로 된 다리가 네 다리냐?</t>
+  </si>
+  <si>
+    <t>아니면 이 은으로 된 다리가 네 다리냐?</t>
+  </si>
+  <si>
+    <t>그것도 아니면...티타늄으로 된 다리가 네 다리냐?</t>
+  </si>
+  <si>
+    <t>난 지금도 나쁘지 않아. 물컹한 느낌만 빼면 말이지…</t>
+  </si>
+  <si>
+    <t>잘 어울려. 원래부터 이런 색이라 해도 사귀였을 거야.</t>
+  </si>
+  <si>
+    <t>아티스트 분한테 물….아앗…내가 지금 무슨 말을!!!</t>
+  </si>
+  <si>
+    <t>요리왕 비룡</t>
+  </si>
+  <si>
+    <t>쿠킹</t>
+  </si>
+  <si>
+    <t>몰라 그거 뭐야 무서워</t>
+  </si>
+  <si>
+    <t>이젠 하다하다 별 언어를 다 하는구나…</t>
+  </si>
+  <si>
+    <t>그걸로 1000번 채우면 세계 최강의 해커가 된대.</t>
+  </si>
+  <si>
+    <t>(이 질문은 버그가 아니니 안심하고 게임을 즐겨주세요!)</t>
+  </si>
+  <si>
+    <t>링딩딩딩딩기딩기딩</t>
+  </si>
+  <si>
+    <t>와파파파파파파우</t>
+  </si>
+  <si>
+    <t>하티하티하티호</t>
+  </si>
+  <si>
+    <t>이중 돌연변이가 어떤 결과를 낳을 지 궁금하긴 하네.</t>
+  </si>
+  <si>
+    <t>방사능을 뿜어대는 좀비라…게임에서 봤어 그거!</t>
+  </si>
+  <si>
+    <t>그렇다면 먹어서 응원해보는 것도 나쁘지 않을 것 같아.</t>
+  </si>
+  <si>
+    <t>전국구 대털이 되기에 부족함이 없는 자질이구나.</t>
+  </si>
+  <si>
+    <t>내 아이큐 150, 네 아이큐 150이면 총 300이겠지?</t>
+  </si>
+  <si>
+    <t>난 전국구 칼잡이고 복대는 기본으로 차고 있어.</t>
+  </si>
+  <si>
+    <t>우는 천사는 본 적 있어. 눈을 감으면 안된대.</t>
+  </si>
+  <si>
+    <t>내가 알던 너는 눈물을 잘 모르던 아이였는데…</t>
+  </si>
+  <si>
+    <t>좀 더 노력해봐. 자기가 최초의 타이틀을 거머쥘 수 있어!</t>
+  </si>
+  <si>
+    <t>너의 공격패턴! 강약약 강강강약 강중약!</t>
+  </si>
+  <si>
+    <t>설마…살을 주고 뼈를 칠 셈인가!</t>
+  </si>
+  <si>
+    <t>이젠 헛소리도 참신하게 하는구나…</t>
+  </si>
+  <si>
+    <t>흑염룡은 있는데 왜 백염룡은 없나요? 이거 인종차별 아닌가요?</t>
+  </si>
+  <si>
+    <t>용을 소로 바꿔주고 싶다…</t>
+  </si>
+  <si>
+    <t>...내 여자친구는 그런 말 안해.</t>
+  </si>
+  <si>
+    <t>크큭…폭주한다…큭…</t>
+  </si>
+  <si>
+    <t>훗…흑화한다…후훗…</t>
+  </si>
+  <si>
+    <t>둘다 좀 안했으면 좋겠다 제발…</t>
+  </si>
+  <si>
+    <t>six times-육회</t>
+  </si>
+  <si>
+    <t>lifestyle meat-생고기</t>
+  </si>
+  <si>
+    <t>bear thang-곰탕</t>
+  </si>
+  <si>
+    <t>유통기한을 정해놔도 까맣게 잊어버릴 것 같아.</t>
+  </si>
+  <si>
+    <t>유통기한 확인하여 사랑선택 올바르게</t>
+  </si>
+  <si>
+    <t>1만년은 너무 적소. 4만년 쯤 합시다.</t>
+  </si>
+  <si>
+    <t>방부 처리같은걸 하면 좀 나을까?</t>
+  </si>
+  <si>
+    <t>혹시 몰라 붕대도 챙겨놨어. 필요하면 이야기해.</t>
+  </si>
+  <si>
+    <t>아직 진정한 좀비가 되려면 멀었어…쯧쯧…</t>
+  </si>
+  <si>
+    <t>(도망치면 안돼. 도망치면 안돼. 도망치면 안돼.)</t>
+  </si>
+  <si>
+    <t>지금 이 순간~</t>
+  </si>
+  <si>
+    <t>바로 지금이야~</t>
+  </si>
+  <si>
+    <t>배고픈 것도 먹고싶은 것도@ 별 생각이 들질 않아.</t>
+  </si>
+  <si>
+    <t>쓰러지지 않을 정도로는 챙겨먹고 있으니 괜찮은거 같아.</t>
+  </si>
+  <si>
+    <t>난 네 얼굴만 봐도 입맛…아니 배가 불러.</t>
+  </si>
+  <si>
+    <t>기억해둬. 표범의 입에는 송곳니가 있다.</t>
+  </si>
+  <si>
+    <t>난 살고 싶어! 너와 함께!</t>
+  </si>
+  <si>
+    <t>혹시 너…나를 좋아하고 있는 거 아니니?</t>
+  </si>
+  <si>
+    <t>정원만 조심한다면 아무래도 괜찮지 않을까?</t>
+  </si>
+  <si>
+    <t>정말 주의해야 할 건 해바라기야. 은근히 무섭다고…</t>
+  </si>
+  <si>
+    <t>밥에서 콩만 골라낼 때부터 이렇게 될 줄 알았지.</t>
+  </si>
+  <si>
+    <t>다른 지식 궁수 찾아라. 이 이상 좋게 줄 수 없다.</t>
+  </si>
+  <si>
+    <t>논... 자유의 모미 아냐. 여태까지 그래와꼬@ 아패로도 개속.</t>
+  </si>
+  <si>
+    <t>왜 나 꽈찌쭈는 햄보칼수가업서!</t>
+  </si>
+  <si>
+    <t>그러게. 운이 정말 좋았던 거 같아.</t>
+  </si>
+  <si>
+    <t>어쩌면, 원래 인기척이 드문 곳이 아닐까?</t>
+  </si>
+  <si>
+    <t>얼른 후라이팬이라도 하나 주워야겠어.</t>
+  </si>
+  <si>
+    <t>좀비가 된 사람이 미치지 않는게 되려 이상한걸…</t>
+  </si>
+  <si>
+    <t>그 미친 좀비의 남자친구가 바로 나 아니겠어?</t>
+  </si>
+  <si>
+    <t>…라고 해도 어차피 너와 나 둘 뿐인걸. 좀비는 너밖에 없고.</t>
+  </si>
+  <si>
+    <t>응? 맛이 없어? 언제 먹어 본 거야 나를?</t>
+  </si>
+  <si>
+    <t>말이 뭔가 이상한 것 같긴 하지만 그래도 고마워.</t>
+  </si>
+  <si>
+    <t>어떻게...양념이라도 좀 구해다 주리?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -564,11 +1519,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -843,18 +1795,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -880,18 +1832,18 @@
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="C3">
@@ -902,88 +1854,88 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1005,7 +1957,7 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1016,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1027,7 +1979,7 @@
         <v>21</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1038,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1049,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1060,7 +2012,7 @@
         <v>24</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1071,7 +2023,7 @@
         <v>25</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1082,7 +2034,7 @@
         <v>26</v>
       </c>
       <c r="C20">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1093,7 +2045,7 @@
         <v>27</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1126,7 +2078,7 @@
         <v>30</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1148,7 +2100,7 @@
         <v>32</v>
       </c>
       <c r="C26">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1159,7 +2111,7 @@
         <v>33</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1170,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1192,7 +2144,7 @@
         <v>36</v>
       </c>
       <c r="C30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1203,7 +2155,7 @@
         <v>37</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1214,7 +2166,7 @@
         <v>38</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1225,7 +2177,7 @@
         <v>39</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1236,7 +2188,7 @@
         <v>40</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1247,7 +2199,7 @@
         <v>41</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1255,10 +2207,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1280,7 +2232,7 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1291,7 +2243,7 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1302,7 +2254,7 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1313,77 +2265,104 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
+      <c r="B42" t="s">
+        <v>161</v>
+      </c>
       <c r="C42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" t="s">
+        <v>162</v>
+      </c>
       <c r="C43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" t="s">
+        <v>163</v>
+      </c>
       <c r="C44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
       <c r="C45">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
+      <c r="B46" t="s">
+        <v>165</v>
+      </c>
       <c r="C46">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
+      <c r="B47" t="s">
+        <v>166</v>
+      </c>
       <c r="C47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
+      <c r="B48" t="s">
+        <v>167</v>
+      </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
+      <c r="B49" t="s">
+        <v>168</v>
+      </c>
       <c r="C49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
+      <c r="B50" t="s">
+        <v>169</v>
+      </c>
       <c r="C50">
         <v>3</v>
       </c>
@@ -1392,118 +2371,163 @@
       <c r="A51">
         <v>49</v>
       </c>
+      <c r="B51" t="s">
+        <v>170</v>
+      </c>
       <c r="C51">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
+      <c r="B52" t="s">
+        <v>171</v>
+      </c>
       <c r="C52">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
+      <c r="B53" t="s">
+        <v>172</v>
+      </c>
       <c r="C53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
       <c r="C54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
+      <c r="B55" t="s">
+        <v>174</v>
+      </c>
       <c r="C55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
       <c r="C56">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
+      <c r="B57" t="s">
+        <v>176</v>
+      </c>
       <c r="C57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
+      <c r="B58" t="s">
+        <v>177</v>
+      </c>
       <c r="C58">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
+      <c r="B59" t="s">
+        <v>178</v>
+      </c>
       <c r="C59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
       <c r="C60">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
+      <c r="B61" t="s">
+        <v>180</v>
+      </c>
       <c r="C61">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
+      <c r="B62" t="s">
+        <v>181</v>
+      </c>
       <c r="C62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
+      <c r="B63" t="s">
+        <v>182</v>
+      </c>
       <c r="C63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
+      <c r="B64" t="s">
+        <v>183</v>
+      </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
+      <c r="B65" t="s">
+        <v>184</v>
+      </c>
       <c r="C65">
         <v>3</v>
       </c>
@@ -1512,22 +2536,31 @@
       <c r="A66">
         <v>64</v>
       </c>
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
       <c r="C66">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
       <c r="C67">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
       <c r="C68">
         <v>1</v>
       </c>
@@ -1536,30 +2569,42 @@
       <c r="A69">
         <v>67</v>
       </c>
+      <c r="B69" t="s">
+        <v>188</v>
+      </c>
       <c r="C69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="B70" t="s">
+        <v>189</v>
+      </c>
       <c r="C70">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
       <c r="C71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
+      <c r="B72" t="s">
+        <v>191</v>
+      </c>
       <c r="C72">
         <v>0</v>
       </c>
@@ -1568,22 +2613,31 @@
       <c r="A73">
         <v>71</v>
       </c>
+      <c r="B73" t="s">
+        <v>192</v>
+      </c>
       <c r="C73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
+      <c r="B74" t="s">
+        <v>193</v>
+      </c>
       <c r="C74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
+      <c r="B75" t="s">
+        <v>194</v>
+      </c>
       <c r="C75">
         <v>3</v>
       </c>
@@ -1592,54 +2646,75 @@
       <c r="A76">
         <v>74</v>
       </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
       <c r="C76">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
+      <c r="B77" t="s">
+        <v>196</v>
+      </c>
       <c r="C77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
       <c r="C78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
+      <c r="B79" t="s">
+        <v>198</v>
+      </c>
       <c r="C79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
+      <c r="B80" t="s">
+        <v>199</v>
+      </c>
       <c r="C80">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
+      <c r="B81" t="s">
+        <v>200</v>
+      </c>
       <c r="C81">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
+      <c r="B82" t="s">
+        <v>201</v>
+      </c>
       <c r="C82">
         <v>0</v>
       </c>
@@ -1648,38 +2723,53 @@
       <c r="A83">
         <v>81</v>
       </c>
+      <c r="B83" t="s">
+        <v>202</v>
+      </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
+      <c r="B84" t="s">
+        <v>203</v>
+      </c>
       <c r="C84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
+      <c r="B85" t="s">
+        <v>204</v>
+      </c>
       <c r="C85">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
+      <c r="B86" t="s">
+        <v>205</v>
+      </c>
       <c r="C86">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
+      <c r="B87" t="s">
+        <v>206</v>
+      </c>
       <c r="C87">
         <v>0</v>
       </c>
@@ -1688,46 +2778,64 @@
       <c r="A88">
         <v>86</v>
       </c>
+      <c r="B88" t="s">
+        <v>207</v>
+      </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
+      <c r="B89" t="s">
+        <v>208</v>
+      </c>
       <c r="C89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
+      <c r="B90" t="s">
+        <v>209</v>
+      </c>
       <c r="C90">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
+      <c r="B91" t="s">
+        <v>210</v>
+      </c>
       <c r="C91">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
+      <c r="B92" t="s">
+        <v>211</v>
+      </c>
       <c r="C92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
+      <c r="B93" t="s">
+        <v>212</v>
+      </c>
       <c r="C93">
         <v>1</v>
       </c>
@@ -1736,54 +2844,75 @@
       <c r="A94">
         <v>92</v>
       </c>
+      <c r="B94" t="s">
+        <v>213</v>
+      </c>
       <c r="C94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
+      <c r="B95" t="s">
+        <v>214</v>
+      </c>
       <c r="C95">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
+      <c r="B96" t="s">
+        <v>215</v>
+      </c>
       <c r="C96">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
+      <c r="B97" t="s">
+        <v>216</v>
+      </c>
       <c r="C97">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
+      <c r="B98" t="s">
+        <v>217</v>
+      </c>
       <c r="C98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
+      <c r="B99" t="s">
+        <v>218</v>
+      </c>
       <c r="C99">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
+      <c r="B100" t="s">
+        <v>219</v>
+      </c>
       <c r="C100">
         <v>3</v>
       </c>
@@ -1792,14 +2921,20 @@
       <c r="A101">
         <v>99</v>
       </c>
+      <c r="B101" t="s">
+        <v>220</v>
+      </c>
       <c r="C101">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
+      <c r="B102" t="s">
+        <v>221</v>
+      </c>
       <c r="C102">
         <v>0</v>
       </c>
@@ -1808,94 +2943,130 @@
       <c r="A103">
         <v>101</v>
       </c>
+      <c r="B103" t="s">
+        <v>222</v>
+      </c>
       <c r="C103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
+      <c r="B104" t="s">
+        <v>223</v>
+      </c>
       <c r="C104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
+      <c r="B105" t="s">
+        <v>224</v>
+      </c>
       <c r="C105">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
       <c r="C106">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
+      <c r="B107" t="s">
+        <v>226</v>
+      </c>
       <c r="C107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
       <c r="C108">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
+      <c r="B109" t="s">
+        <v>228</v>
+      </c>
       <c r="C109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
+      <c r="B110" t="s">
+        <v>229</v>
+      </c>
       <c r="C110">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
+      <c r="B111" t="s">
+        <v>230</v>
+      </c>
       <c r="C111">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
+      <c r="B112" t="s">
+        <v>231</v>
+      </c>
       <c r="C112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
       <c r="C113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
       <c r="C114">
         <v>2</v>
       </c>
@@ -1904,22 +3075,31 @@
       <c r="A115">
         <v>113</v>
       </c>
+      <c r="B115" t="s">
+        <v>234</v>
+      </c>
       <c r="C115">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
+      <c r="B116" t="s">
+        <v>235</v>
+      </c>
       <c r="C116">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
+      <c r="B117" t="s">
+        <v>236</v>
+      </c>
       <c r="C117">
         <v>0</v>
       </c>
@@ -1928,22 +3108,31 @@
       <c r="A118">
         <v>116</v>
       </c>
+      <c r="B118" t="s">
+        <v>237</v>
+      </c>
       <c r="C118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
+      <c r="B119" t="s">
+        <v>238</v>
+      </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
       <c r="C120">
         <v>3</v>
       </c>
@@ -1951,6 +3140,9 @@
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>240</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -1963,11 +3155,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F361"/>
   <sheetViews>
-    <sheetView topLeftCell="A317" workbookViewId="0">
-      <selection activeCell="C325" sqref="C325"/>
+    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2007,7 +3199,7 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -2027,13 +3219,13 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>-1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2047,13 +3239,13 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2069,13 +3261,13 @@
         <v>50</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -2091,10 +3283,10 @@
         <v>51</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -2116,10 +3308,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -2135,10 +3327,10 @@
         <v>53</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2160,10 +3352,10 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -2179,13 +3371,13 @@
         <v>55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2201,10 +3393,10 @@
         <v>56</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -2267,13 +3459,13 @@
         <v>9</v>
       </c>
       <c r="D14">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2292,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2311,13 +3503,13 @@
         <v>60</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2333,13 +3525,13 @@
         <v>61</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2355,10 +3547,10 @@
         <v>62</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2377,13 +3569,13 @@
         <v>63</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2399,10 +3591,10 @@
         <v>64</v>
       </c>
       <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>5</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2424,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2465,13 +3657,13 @@
         <v>67</v>
       </c>
       <c r="D23">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -2487,10 +3679,10 @@
         <v>68</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E24">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2509,13 +3701,13 @@
         <v>69</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,13 +3723,13 @@
         <v>70</v>
       </c>
       <c r="D26">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -2556,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,13 +3767,13 @@
         <v>72</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F28">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -2622,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2663,10 +3855,10 @@
         <v>76</v>
       </c>
       <c r="D32">
+        <v>10</v>
+      </c>
+      <c r="E32">
         <v>5</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2688,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2710,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F34">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,7 +3921,7 @@
         <v>79</v>
       </c>
       <c r="D35">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2754,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2795,7 +3987,7 @@
         <v>20</v>
       </c>
       <c r="D38">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2820,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2883,10 +4075,10 @@
         <v>85</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2927,10 +4119,10 @@
         <v>87</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2952,10 +4144,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2974,10 +4166,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F46">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2993,7 +4185,7 @@
         <v>90</v>
       </c>
       <c r="D47">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3015,10 +4207,10 @@
         <v>91</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E48">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3062,7 +4254,7 @@
         <v>-5</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3081,10 +4273,10 @@
         <v>48</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3103,13 +4295,13 @@
         <v>93</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E52">
         <v>0</v>
       </c>
       <c r="F52">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3125,13 +4317,13 @@
         <v>94</v>
       </c>
       <c r="D53">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3147,10 +4339,10 @@
         <v>95</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E54">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3169,13 +4361,13 @@
         <v>96</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E55">
         <v>0</v>
       </c>
       <c r="F55">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3191,7 +4383,7 @@
         <v>97</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3216,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3238,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F58">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3257,10 +4449,10 @@
         <v>100</v>
       </c>
       <c r="D59">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3279,10 +4471,10 @@
         <v>101</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E60">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3323,10 +4515,10 @@
         <v>103</v>
       </c>
       <c r="D62">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3342,10 +4534,10 @@
         <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>-5</v>
@@ -3389,13 +4581,13 @@
         <v>105</v>
       </c>
       <c r="D65">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E65">
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -3411,10 +4603,10 @@
         <v>106</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E66">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3433,13 +4625,13 @@
         <v>107</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -3474,10 +4666,10 @@
         <v>22</v>
       </c>
       <c r="C69" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>5</v>
@@ -3521,7 +4713,7 @@
         <v>110</v>
       </c>
       <c r="D71">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3543,10 +4735,10 @@
         <v>111</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E72">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3565,13 +4757,13 @@
         <v>112</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="E73">
         <v>0</v>
       </c>
       <c r="F73">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -3587,7 +4779,7 @@
         <v>113</v>
       </c>
       <c r="D74">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3612,10 +4804,10 @@
         <v>0</v>
       </c>
       <c r="E75">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -3656,7 +4848,7 @@
         <v>10</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F77">
         <v>0</v>
@@ -3675,10 +4867,10 @@
         <v>117</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E78">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -3719,10 +4911,10 @@
         <v>119</v>
       </c>
       <c r="D80">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -3741,10 +4933,10 @@
         <v>120</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E81">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -3791,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -3807,10 +4999,10 @@
         <v>123</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E84">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3832,10 +5024,10 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F85">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -3851,10 +5043,10 @@
         <v>125</v>
       </c>
       <c r="D86">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3873,10 +5065,10 @@
         <v>126</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E87">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3983,7 +5175,7 @@
         <v>129</v>
       </c>
       <c r="D92">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -4008,10 +5200,10 @@
         <v>0</v>
       </c>
       <c r="E93">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -4024,16 +5216,16 @@
         <v>30</v>
       </c>
       <c r="C94" t="s">
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E94">
         <v>0</v>
       </c>
       <c r="F94">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -4046,10 +5238,10 @@
         <v>31</v>
       </c>
       <c r="C95" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D95">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -4068,13 +5260,13 @@
         <v>31</v>
       </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E96">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -4090,16 +5282,16 @@
         <v>31</v>
       </c>
       <c r="C97" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E97">
         <v>0</v>
       </c>
       <c r="F97">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -4112,13 +5304,13 @@
         <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D98">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -4134,13 +5326,13 @@
         <v>32</v>
       </c>
       <c r="C99" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
       <c r="E99">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -4156,16 +5348,16 @@
         <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -4178,16 +5370,16 @@
         <v>33</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D101">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4200,13 +5392,13 @@
         <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -4222,16 +5414,16 @@
         <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E103">
         <v>0</v>
       </c>
       <c r="F103">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -4244,13 +5436,13 @@
         <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D104">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -4266,13 +5458,13 @@
         <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D105">
         <v>0</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -4288,7 +5480,7 @@
         <v>34</v>
       </c>
       <c r="C106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -4310,10 +5502,10 @@
         <v>35</v>
       </c>
       <c r="C107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D107">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -4332,13 +5524,13 @@
         <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E108">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -4354,7 +5546,7 @@
         <v>35</v>
       </c>
       <c r="C109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -4376,10 +5568,10 @@
         <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D110">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -4398,16 +5590,16 @@
         <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -4420,16 +5612,16 @@
         <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F112">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -4442,10 +5634,10 @@
         <v>37</v>
       </c>
       <c r="C113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D113">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -4464,13 +5656,13 @@
         <v>37</v>
       </c>
       <c r="C114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D114">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -4486,16 +5678,16 @@
         <v>37</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D115">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F115">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -4508,13 +5700,13 @@
         <v>38</v>
       </c>
       <c r="C116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D116">
         <v>5</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -4530,13 +5722,13 @@
         <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E117">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -4552,7 +5744,7 @@
         <v>38</v>
       </c>
       <c r="C118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -4574,10 +5766,10 @@
         <v>39</v>
       </c>
       <c r="C119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D119">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -4596,16 +5788,16 @@
         <v>39</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D120">
         <v>0</v>
       </c>
       <c r="E120">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -4618,16 +5810,16 @@
         <v>39</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F121">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -4639,8 +5831,11 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="C122" t="s">
+        <v>242</v>
+      </c>
       <c r="D122">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4658,11 +5853,14 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="C123" t="s">
+        <v>243</v>
+      </c>
       <c r="D123">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E123">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -4677,6 +5875,9 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
       <c r="D124">
         <v>0</v>
       </c>
@@ -4696,11 +5897,14 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="C125" t="s">
+        <v>245</v>
+      </c>
       <c r="D125">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4715,11 +5919,14 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="C126" t="s">
+        <v>246</v>
+      </c>
       <c r="D126">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E126">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -4734,14 +5941,17 @@
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
       <c r="D127">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E127">
         <v>0</v>
       </c>
       <c r="F127">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4753,11 +5963,14 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
+      <c r="C128" t="s">
+        <v>248</v>
+      </c>
       <c r="D128">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E128">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F128">
         <v>0</v>
@@ -4772,11 +5985,14 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
+      <c r="C129" t="s">
+        <v>249</v>
+      </c>
       <c r="D129">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E129">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4791,6 +6007,9 @@
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
+      <c r="C130" t="s">
+        <v>250</v>
+      </c>
       <c r="D130">
         <v>0</v>
       </c>
@@ -4810,14 +6029,17 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="C131" t="s">
+        <v>251</v>
+      </c>
       <c r="D131">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E131">
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -4829,11 +6051,14 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="C132" t="s">
+        <v>252</v>
+      </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F132">
         <v>0</v>
@@ -4848,6 +6073,9 @@
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
+      <c r="C133" t="s">
+        <v>253</v>
+      </c>
       <c r="D133">
         <v>0</v>
       </c>
@@ -4867,8 +6095,11 @@
         <f t="shared" ref="B134:B197" si="4">B131+1</f>
         <v>44</v>
       </c>
+      <c r="C134" t="s">
+        <v>254</v>
+      </c>
       <c r="D134">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -4886,11 +6117,14 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
+      <c r="C135" t="s">
+        <v>255</v>
+      </c>
       <c r="D135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F135">
         <v>0</v>
@@ -4905,14 +6139,17 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
+      <c r="C136" t="s">
+        <v>256</v>
+      </c>
       <c r="D136">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E136">
         <v>0</v>
       </c>
       <c r="F136">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -4924,14 +6161,17 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
+      <c r="C137" t="s">
+        <v>257</v>
+      </c>
       <c r="D137">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E137">
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,8 +6183,11 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
+      <c r="C138" t="s">
+        <v>258</v>
+      </c>
       <c r="D138">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E138">
         <v>5</v>
@@ -4962,6 +6205,9 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
+      <c r="C139" t="s">
+        <v>259</v>
+      </c>
       <c r="D139">
         <v>0</v>
       </c>
@@ -4981,8 +6227,11 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
+      <c r="C140" t="s">
+        <v>260</v>
+      </c>
       <c r="D140">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -5000,11 +6249,14 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
+      <c r="C141" t="s">
+        <v>261</v>
+      </c>
       <c r="D141">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E141">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F141">
         <v>0</v>
@@ -5019,6 +6271,9 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
+      <c r="C142" t="s">
+        <v>262</v>
+      </c>
       <c r="D142">
         <v>0</v>
       </c>
@@ -5038,6 +6293,9 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
+      <c r="C143" t="s">
+        <v>263</v>
+      </c>
       <c r="D143">
         <v>10</v>
       </c>
@@ -5057,11 +6315,14 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
+      <c r="C144" t="s">
+        <v>264</v>
+      </c>
       <c r="D144">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E144">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -5076,6 +6337,9 @@
         <f t="shared" si="4"/>
         <v>47</v>
       </c>
+      <c r="C145" t="s">
+        <v>265</v>
+      </c>
       <c r="D145">
         <v>0</v>
       </c>
@@ -5095,11 +6359,14 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
+      <c r="C146" t="s">
+        <v>266</v>
+      </c>
       <c r="D146">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F146">
         <v>0</v>
@@ -5114,11 +6381,14 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
+      <c r="C147" t="s">
+        <v>267</v>
+      </c>
       <c r="D147">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E147">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -5133,6 +6403,9 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
+      <c r="C148" t="s">
+        <v>268</v>
+      </c>
       <c r="D148">
         <v>0</v>
       </c>
@@ -5152,8 +6425,11 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
+      <c r="C149" t="s">
+        <v>269</v>
+      </c>
       <c r="D149">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -5171,11 +6447,14 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
+      <c r="C150" t="s">
+        <v>270</v>
+      </c>
       <c r="D150">
         <v>0</v>
       </c>
       <c r="E150">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F150">
         <v>0</v>
@@ -5190,6 +6469,9 @@
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
+      <c r="C151" t="s">
+        <v>271</v>
+      </c>
       <c r="D151">
         <v>0</v>
       </c>
@@ -5209,8 +6491,11 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="C152" t="s">
+        <v>272</v>
+      </c>
       <c r="D152">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -5228,14 +6513,17 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="C153" t="s">
+        <v>273</v>
+      </c>
       <c r="D153">
         <v>0</v>
       </c>
       <c r="E153">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -5247,14 +6535,17 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
+      <c r="C154" t="s">
+        <v>274</v>
+      </c>
       <c r="D154">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E154">
         <v>0</v>
       </c>
       <c r="F154">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,14 +6557,17 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
+      <c r="C155" t="s">
+        <v>275</v>
+      </c>
       <c r="D155">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E155">
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -5285,11 +6579,14 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
+      <c r="C156" t="s">
+        <v>276</v>
+      </c>
       <c r="D156">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E156">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F156">
         <v>0</v>
@@ -5304,14 +6601,17 @@
         <f t="shared" si="4"/>
         <v>51</v>
       </c>
+      <c r="C157" t="s">
+        <v>277</v>
+      </c>
       <c r="D157">
         <v>0</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F157">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -5323,8 +6623,11 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
+      <c r="C158" t="s">
+        <v>278</v>
+      </c>
       <c r="D158">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5342,11 +6645,14 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
+      <c r="C159" t="s">
+        <v>279</v>
+      </c>
       <c r="D159">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -5361,14 +6667,17 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
+      <c r="C160" t="s">
+        <v>280</v>
+      </c>
       <c r="D160">
         <v>0</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F160">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -5380,8 +6689,11 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
+      <c r="C161" t="s">
+        <v>281</v>
+      </c>
       <c r="D161">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E161">
         <v>0</v>
@@ -5399,11 +6711,14 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
+      <c r="C162" t="s">
+        <v>282</v>
+      </c>
       <c r="D162">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E162">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -5418,6 +6733,9 @@
         <f t="shared" si="4"/>
         <v>53</v>
       </c>
+      <c r="C163" t="s">
+        <v>283</v>
+      </c>
       <c r="D163">
         <v>0</v>
       </c>
@@ -5437,6 +6755,9 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
+      <c r="C164" t="s">
+        <v>284</v>
+      </c>
       <c r="D164">
         <v>10</v>
       </c>
@@ -5456,14 +6777,17 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
+      <c r="C165" t="s">
+        <v>285</v>
+      </c>
       <c r="D165">
         <v>0</v>
       </c>
       <c r="E165">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -5475,6 +6799,9 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
+      <c r="C166" t="s">
+        <v>286</v>
+      </c>
       <c r="D166">
         <v>0</v>
       </c>
@@ -5494,8 +6821,11 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
+      <c r="C167" t="s">
+        <v>287</v>
+      </c>
       <c r="D167">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5513,11 +6843,14 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
+      <c r="C168" t="s">
+        <v>288</v>
+      </c>
       <c r="D168">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E168">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F168">
         <v>0</v>
@@ -5532,14 +6865,17 @@
         <f t="shared" si="4"/>
         <v>55</v>
       </c>
+      <c r="C169" t="s">
+        <v>289</v>
+      </c>
       <c r="D169">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E169">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F169">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -5551,11 +6887,14 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
+      <c r="C170" t="s">
+        <v>290</v>
+      </c>
       <c r="D170">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F170">
         <v>0</v>
@@ -5570,14 +6909,17 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
+      <c r="C171" t="s">
+        <v>291</v>
+      </c>
       <c r="D171">
         <v>0</v>
       </c>
       <c r="E171">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -5589,14 +6931,17 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
+      <c r="C172" t="s">
+        <v>292</v>
+      </c>
       <c r="D172">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E172">
         <v>0</v>
       </c>
       <c r="F172">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -5608,14 +6953,17 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
+      <c r="C173" t="s">
+        <v>293</v>
+      </c>
       <c r="D173">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E173">
         <v>0</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -5627,8 +6975,11 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
+      <c r="C174" t="s">
+        <v>294</v>
+      </c>
       <c r="D174">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>-5</v>
@@ -5646,6 +6997,9 @@
         <f t="shared" si="4"/>
         <v>57</v>
       </c>
+      <c r="C175" t="s">
+        <v>295</v>
+      </c>
       <c r="D175">
         <v>0</v>
       </c>
@@ -5665,11 +7019,14 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
+      <c r="C176" t="s">
+        <v>296</v>
+      </c>
       <c r="D176">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -5684,11 +7041,14 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
+      <c r="C177" t="s">
+        <v>297</v>
+      </c>
       <c r="D177">
         <v>0</v>
       </c>
       <c r="E177">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="F177">
         <v>0</v>
@@ -5703,14 +7063,17 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
+      <c r="C178" t="s">
+        <v>298</v>
+      </c>
       <c r="D178">
         <v>0</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -5722,14 +7085,17 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
+      <c r="C179" t="s">
+        <v>299</v>
+      </c>
       <c r="D179">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E179">
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
@@ -5741,14 +7107,17 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
+      <c r="C180" t="s">
+        <v>300</v>
+      </c>
       <c r="D180">
         <v>0</v>
       </c>
       <c r="E180">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -5760,14 +7129,17 @@
         <f t="shared" si="4"/>
         <v>59</v>
       </c>
+      <c r="C181" t="s">
+        <v>301</v>
+      </c>
       <c r="D181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F181">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -5779,11 +7151,14 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
+      <c r="C182" t="s">
+        <v>302</v>
+      </c>
       <c r="D182">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -5798,14 +7173,17 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
+      <c r="C183" t="s">
+        <v>303</v>
+      </c>
       <c r="D183">
         <v>0</v>
       </c>
       <c r="E183">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F183">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -5817,14 +7195,17 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
+      <c r="C184" t="s">
+        <v>304</v>
+      </c>
       <c r="D184">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E184">
         <v>0</v>
       </c>
       <c r="F184">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -5836,11 +7217,14 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
+      <c r="C185" t="s">
+        <v>305</v>
+      </c>
       <c r="D185">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -5855,11 +7239,14 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
+      <c r="C186" t="s">
+        <v>306</v>
+      </c>
       <c r="D186">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E186">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F186">
         <v>0</v>
@@ -5874,14 +7261,17 @@
         <f t="shared" si="4"/>
         <v>61</v>
       </c>
+      <c r="C187" t="s">
+        <v>307</v>
+      </c>
       <c r="D187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E187">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F187">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -5893,11 +7283,14 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
+      <c r="C188" t="s">
+        <v>308</v>
+      </c>
       <c r="D188">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F188">
         <v>0</v>
@@ -5912,11 +7305,14 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
+      <c r="C189" t="s">
+        <v>309</v>
+      </c>
       <c r="D189">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E189">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F189">
         <v>0</v>
@@ -5931,6 +7327,9 @@
         <f t="shared" si="4"/>
         <v>62</v>
       </c>
+      <c r="C190" t="s">
+        <v>310</v>
+      </c>
       <c r="D190">
         <v>0</v>
       </c>
@@ -5950,14 +7349,17 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
+      <c r="C191" t="s">
+        <v>311</v>
+      </c>
       <c r="D191">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E191">
         <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -5969,11 +7371,14 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
+      <c r="C192" t="s">
+        <v>312</v>
+      </c>
       <c r="D192">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E192">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F192">
         <v>0</v>
@@ -5988,14 +7393,17 @@
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
+      <c r="C193" t="s">
+        <v>313</v>
+      </c>
       <c r="D193">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F193">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -6007,14 +7415,17 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
+      <c r="C194" t="s">
+        <v>314</v>
+      </c>
       <c r="D194">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E194">
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
@@ -6026,11 +7437,14 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
+      <c r="C195" t="s">
+        <v>315</v>
+      </c>
       <c r="D195">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E195">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -6045,11 +7459,14 @@
         <f t="shared" si="4"/>
         <v>64</v>
       </c>
+      <c r="C196" t="s">
+        <v>316</v>
+      </c>
       <c r="D196">
         <v>0</v>
       </c>
       <c r="E196">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F196">
         <v>-1</v>
@@ -6064,8 +7481,11 @@
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
+      <c r="C197" t="s">
+        <v>317</v>
+      </c>
       <c r="D197">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -6083,14 +7503,17 @@
         <f t="shared" ref="B198:B261" si="6">B195+1</f>
         <v>65</v>
       </c>
+      <c r="C198" t="s">
+        <v>318</v>
+      </c>
       <c r="D198">
         <v>0</v>
       </c>
       <c r="E198">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -6102,14 +7525,17 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
+      <c r="C199" t="s">
+        <v>319</v>
+      </c>
       <c r="D199">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E199">
         <v>0</v>
       </c>
       <c r="F199">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -6121,6 +7547,9 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
+      <c r="C200" t="s">
+        <v>320</v>
+      </c>
       <c r="D200">
         <v>5</v>
       </c>
@@ -6140,11 +7569,14 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
+      <c r="C201" t="s">
+        <v>321</v>
+      </c>
       <c r="D201">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E201">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -6159,6 +7591,9 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
+      <c r="C202" t="s">
+        <v>322</v>
+      </c>
       <c r="D202">
         <v>0</v>
       </c>
@@ -6178,8 +7613,11 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
+      <c r="C203" t="s">
+        <v>323</v>
+      </c>
       <c r="D203">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -6197,14 +7635,17 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
+      <c r="C204" t="s">
+        <v>324</v>
+      </c>
       <c r="D204">
         <v>0</v>
       </c>
       <c r="E204">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
@@ -6216,14 +7657,17 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
+      <c r="C205" t="s">
+        <v>325</v>
+      </c>
       <c r="D205">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E205">
         <v>0</v>
       </c>
       <c r="F205">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -6235,11 +7679,14 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
+      <c r="C206" t="s">
+        <v>326</v>
+      </c>
       <c r="D206">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F206">
         <v>0</v>
@@ -6254,11 +7701,14 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
+      <c r="C207" t="s">
+        <v>327</v>
+      </c>
       <c r="D207">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E207">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F207">
         <v>0</v>
@@ -6273,6 +7723,9 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
+      <c r="C208" t="s">
+        <v>328</v>
+      </c>
       <c r="D208">
         <v>0</v>
       </c>
@@ -6292,8 +7745,11 @@
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
+      <c r="C209" t="s">
+        <v>329</v>
+      </c>
       <c r="D209">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -6311,11 +7767,14 @@
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
+      <c r="C210" t="s">
+        <v>330</v>
+      </c>
       <c r="D210">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E210">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F210">
         <v>0</v>
@@ -6330,6 +7789,9 @@
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
+      <c r="C211" t="s">
+        <v>331</v>
+      </c>
       <c r="D211">
         <v>0</v>
       </c>
@@ -6349,8 +7811,11 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
+      <c r="C212" t="s">
+        <v>332</v>
+      </c>
       <c r="D212">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -6368,11 +7833,14 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
+      <c r="C213" t="s">
+        <v>333</v>
+      </c>
       <c r="D213">
         <v>0</v>
       </c>
       <c r="E213">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -6387,14 +7855,17 @@
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
+      <c r="C214" t="s">
+        <v>334</v>
+      </c>
       <c r="D214">
         <v>0</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F214">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -6406,8 +7877,11 @@
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
+      <c r="C215" t="s">
+        <v>335</v>
+      </c>
       <c r="D215">
-        <v>-5</v>
+        <v>15</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -6425,11 +7899,14 @@
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
+      <c r="C216" t="s">
+        <v>336</v>
+      </c>
       <c r="D216">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E216">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F216">
         <v>0</v>
@@ -6444,6 +7921,9 @@
         <f t="shared" si="6"/>
         <v>71</v>
       </c>
+      <c r="C217" t="s">
+        <v>337</v>
+      </c>
       <c r="D217">
         <v>0</v>
       </c>
@@ -6463,8 +7943,11 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
+      <c r="C218" t="s">
+        <v>338</v>
+      </c>
       <c r="D218">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -6482,11 +7965,14 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
+      <c r="C219" t="s">
+        <v>339</v>
+      </c>
       <c r="D219">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F219">
         <v>0</v>
@@ -6501,6 +7987,9 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
+      <c r="C220" t="s">
+        <v>340</v>
+      </c>
       <c r="D220">
         <v>0</v>
       </c>
@@ -6520,6 +8009,9 @@
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
+      <c r="C221" t="s">
+        <v>341</v>
+      </c>
       <c r="D221">
         <v>5</v>
       </c>
@@ -6539,11 +8031,14 @@
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
+      <c r="C222" t="s">
+        <v>342</v>
+      </c>
       <c r="D222">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E222">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F222">
         <v>0</v>
@@ -6558,14 +8053,17 @@
         <f t="shared" si="6"/>
         <v>73</v>
       </c>
+      <c r="C223" t="s">
+        <v>343</v>
+      </c>
       <c r="D223">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E223">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F223">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -6577,6 +8075,9 @@
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
+      <c r="C224" t="s">
+        <v>344</v>
+      </c>
       <c r="D224">
         <v>-10</v>
       </c>
@@ -6596,14 +8097,17 @@
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
+      <c r="C225" t="s">
+        <v>345</v>
+      </c>
       <c r="D225">
         <v>0</v>
       </c>
       <c r="E225">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -6615,14 +8119,17 @@
         <f t="shared" si="6"/>
         <v>74</v>
       </c>
+      <c r="C226" t="s">
+        <v>346</v>
+      </c>
       <c r="D226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F226">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -6634,14 +8141,17 @@
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
+      <c r="C227" t="s">
+        <v>347</v>
+      </c>
       <c r="D227">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E227">
         <v>0</v>
       </c>
       <c r="F227">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -6653,11 +8163,14 @@
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
+      <c r="C228" t="s">
+        <v>348</v>
+      </c>
       <c r="D228">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E228">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F228">
         <v>0</v>
@@ -6672,14 +8185,17 @@
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
+      <c r="C229" t="s">
+        <v>349</v>
+      </c>
       <c r="D229">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E229">
         <v>0</v>
       </c>
       <c r="F229">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -6691,8 +8207,11 @@
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
+      <c r="C230" t="s">
+        <v>350</v>
+      </c>
       <c r="D230">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E230">
         <v>0</v>
@@ -6710,11 +8229,14 @@
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
+      <c r="C231" t="s">
+        <v>351</v>
+      </c>
       <c r="D231">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E231">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F231">
         <v>0</v>
@@ -6729,6 +8251,9 @@
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
+      <c r="C232" t="s">
+        <v>352</v>
+      </c>
       <c r="D232">
         <v>0</v>
       </c>
@@ -6748,8 +8273,11 @@
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
+      <c r="C233" t="s">
+        <v>353</v>
+      </c>
       <c r="D233">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E233">
         <v>0</v>
@@ -6767,6 +8295,9 @@
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
+      <c r="C234" t="s">
+        <v>354</v>
+      </c>
       <c r="D234">
         <v>0</v>
       </c>
@@ -6786,6 +8317,9 @@
         <f t="shared" si="6"/>
         <v>77</v>
       </c>
+      <c r="C235" t="s">
+        <v>355</v>
+      </c>
       <c r="D235">
         <v>0</v>
       </c>
@@ -6805,8 +8339,11 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
+      <c r="C236" t="s">
+        <v>356</v>
+      </c>
       <c r="D236">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -6824,11 +8361,14 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
+      <c r="C237" t="s">
+        <v>357</v>
+      </c>
       <c r="D237">
         <v>0</v>
       </c>
       <c r="E237">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="F237">
         <v>0</v>
@@ -6843,6 +8383,9 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
+      <c r="C238" t="s">
+        <v>358</v>
+      </c>
       <c r="D238">
         <v>0</v>
       </c>
@@ -6862,11 +8405,14 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
+      <c r="C239" t="s">
+        <v>359</v>
+      </c>
       <c r="D239">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F239">
         <v>0</v>
@@ -6881,11 +8427,14 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
+      <c r="C240" t="s">
+        <v>360</v>
+      </c>
       <c r="D240">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F240">
         <v>0</v>
@@ -6900,6 +8449,9 @@
         <f t="shared" si="6"/>
         <v>79</v>
       </c>
+      <c r="C241" t="s">
+        <v>361</v>
+      </c>
       <c r="D241">
         <v>0</v>
       </c>
@@ -6919,11 +8471,14 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
+      <c r="C242" t="s">
+        <v>362</v>
+      </c>
       <c r="D242">
         <v>5</v>
       </c>
       <c r="E242">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F242">
         <v>0</v>
@@ -6938,11 +8493,14 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
+      <c r="C243" t="s">
+        <v>363</v>
+      </c>
       <c r="D243">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E243">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -6957,14 +8515,17 @@
         <f t="shared" si="6"/>
         <v>80</v>
       </c>
+      <c r="C244" t="s">
+        <v>364</v>
+      </c>
       <c r="D244">
         <v>0</v>
       </c>
       <c r="E244">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F244">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -6976,11 +8537,14 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
+      <c r="C245" t="s">
+        <v>365</v>
+      </c>
       <c r="D245">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F245">
         <v>0</v>
@@ -6995,11 +8559,14 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
+      <c r="C246" t="s">
+        <v>366</v>
+      </c>
       <c r="D246">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E246">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F246">
         <v>0</v>
@@ -7014,14 +8581,17 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
+      <c r="C247" t="s">
+        <v>367</v>
+      </c>
       <c r="D247">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E247">
         <v>0</v>
       </c>
       <c r="F247">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -7033,11 +8603,14 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
+      <c r="C248" t="s">
+        <v>368</v>
+      </c>
       <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248">
         <v>10</v>
-      </c>
-      <c r="E248">
-        <v>0</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -7052,11 +8625,14 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
+      <c r="C249" t="s">
+        <v>369</v>
+      </c>
       <c r="D249">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F249">
         <v>0</v>
@@ -7071,14 +8647,17 @@
         <f t="shared" si="6"/>
         <v>82</v>
       </c>
+      <c r="C250" t="s">
+        <v>370</v>
+      </c>
       <c r="D250">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E250">
         <v>0</v>
       </c>
       <c r="F250">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -7090,8 +8669,11 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
+      <c r="C251" t="s">
+        <v>371</v>
+      </c>
       <c r="D251">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E251">
         <v>0</v>
@@ -7109,11 +8691,14 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
+      <c r="C252" t="s">
+        <v>372</v>
+      </c>
       <c r="D252">
         <v>0</v>
       </c>
       <c r="E252">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -7128,6 +8713,9 @@
         <f t="shared" si="6"/>
         <v>83</v>
       </c>
+      <c r="C253" t="s">
+        <v>373</v>
+      </c>
       <c r="D253">
         <v>0</v>
       </c>
@@ -7147,8 +8735,11 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
+      <c r="C254" t="s">
+        <v>374</v>
+      </c>
       <c r="D254">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -7166,11 +8757,14 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
+      <c r="C255" t="s">
+        <v>375</v>
+      </c>
       <c r="D255">
         <v>0</v>
       </c>
       <c r="E255">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="F255">
         <v>0</v>
@@ -7185,6 +8779,9 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
+      <c r="C256" t="s">
+        <v>376</v>
+      </c>
       <c r="D256">
         <v>0</v>
       </c>
@@ -7204,11 +8801,14 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
+      <c r="C257" t="s">
+        <v>377</v>
+      </c>
       <c r="D257">
+        <v>5</v>
+      </c>
+      <c r="E257">
         <v>-5</v>
-      </c>
-      <c r="E257">
-        <v>0</v>
       </c>
       <c r="F257">
         <v>0</v>
@@ -7223,11 +8823,14 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
+      <c r="C258" t="s">
+        <v>378</v>
+      </c>
       <c r="D258">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E258">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F258">
         <v>0</v>
@@ -7242,6 +8845,9 @@
         <f t="shared" si="6"/>
         <v>85</v>
       </c>
+      <c r="C259" t="s">
+        <v>379</v>
+      </c>
       <c r="D259">
         <v>0</v>
       </c>
@@ -7261,11 +8867,14 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
+      <c r="C260" t="s">
+        <v>380</v>
+      </c>
       <c r="D260">
         <v>10</v>
       </c>
       <c r="E260">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -7280,11 +8889,14 @@
         <f t="shared" si="6"/>
         <v>86</v>
       </c>
+      <c r="C261" t="s">
+        <v>381</v>
+      </c>
       <c r="D261">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F261">
         <v>0</v>
@@ -7299,6 +8911,9 @@
         <f t="shared" ref="B262:B325" si="8">B259+1</f>
         <v>86</v>
       </c>
+      <c r="C262" t="s">
+        <v>382</v>
+      </c>
       <c r="D262">
         <v>0</v>
       </c>
@@ -7318,8 +8933,11 @@
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
+      <c r="C263" t="s">
+        <v>383</v>
+      </c>
       <c r="D263">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E263">
         <v>0</v>
@@ -7337,14 +8955,17 @@
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
+      <c r="C264" t="s">
+        <v>384</v>
+      </c>
       <c r="D264">
         <v>0</v>
       </c>
       <c r="E264">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F264">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -7356,14 +8977,17 @@
         <f t="shared" si="8"/>
         <v>87</v>
       </c>
+      <c r="C265" t="s">
+        <v>385</v>
+      </c>
       <c r="D265">
         <v>0</v>
       </c>
       <c r="E265">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F265">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.3">
@@ -7375,11 +8999,14 @@
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
+      <c r="C266" t="s">
+        <v>386</v>
+      </c>
       <c r="D266">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E266">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F266">
         <v>0</v>
@@ -7394,6 +9021,9 @@
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
+      <c r="C267" t="s">
+        <v>387</v>
+      </c>
       <c r="D267">
         <v>0</v>
       </c>
@@ -7413,14 +9043,17 @@
         <f t="shared" si="8"/>
         <v>88</v>
       </c>
+      <c r="C268" t="s">
+        <v>388</v>
+      </c>
       <c r="D268">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E268">
         <v>0</v>
       </c>
       <c r="F268">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,11 +9065,14 @@
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
+      <c r="C269" t="s">
+        <v>389</v>
+      </c>
       <c r="D269">
+        <v>0</v>
+      </c>
+      <c r="E269">
         <v>10</v>
-      </c>
-      <c r="E269">
-        <v>0</v>
       </c>
       <c r="F269">
         <v>0</v>
@@ -7451,11 +9087,14 @@
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
+      <c r="C270" t="s">
+        <v>390</v>
+      </c>
       <c r="D270">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E270">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F270">
         <v>0</v>
@@ -7470,6 +9109,9 @@
         <f t="shared" si="8"/>
         <v>89</v>
       </c>
+      <c r="C271" t="s">
+        <v>391</v>
+      </c>
       <c r="D271">
         <v>0</v>
       </c>
@@ -7489,6 +9131,9 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
+      <c r="C272" t="s">
+        <v>392</v>
+      </c>
       <c r="D272">
         <v>5</v>
       </c>
@@ -7508,8 +9153,11 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
+      <c r="C273" t="s">
+        <v>393</v>
+      </c>
       <c r="D273">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E273">
         <v>5</v>
@@ -7527,14 +9175,17 @@
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
+      <c r="C274" t="s">
+        <v>394</v>
+      </c>
       <c r="D274">
         <v>0</v>
       </c>
       <c r="E274">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F274">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
@@ -7546,14 +9197,17 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
+      <c r="C275" t="s">
+        <v>395</v>
+      </c>
       <c r="D275">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E275">
         <v>0</v>
       </c>
       <c r="F275">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
@@ -7565,14 +9219,17 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
+      <c r="C276" t="s">
+        <v>396</v>
+      </c>
       <c r="D276">
         <v>0</v>
       </c>
       <c r="E276">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F276">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.3">
@@ -7584,14 +9241,17 @@
         <f t="shared" si="8"/>
         <v>91</v>
       </c>
+      <c r="C277" t="s">
+        <v>397</v>
+      </c>
       <c r="D277">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E277">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F277">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.3">
@@ -7603,8 +9263,11 @@
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
+      <c r="C278" t="s">
+        <v>398</v>
+      </c>
       <c r="D278">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -7622,11 +9285,14 @@
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
+      <c r="C279" t="s">
+        <v>399</v>
+      </c>
       <c r="D279">
         <v>0</v>
       </c>
       <c r="E279">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F279">
         <v>0</v>
@@ -7641,6 +9307,9 @@
         <f t="shared" si="8"/>
         <v>92</v>
       </c>
+      <c r="C280" t="s">
+        <v>400</v>
+      </c>
       <c r="D280">
         <v>0</v>
       </c>
@@ -7660,11 +9329,14 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
+      <c r="C281" t="s">
+        <v>401</v>
+      </c>
       <c r="D281">
+        <v>0</v>
+      </c>
+      <c r="E281">
         <v>10</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
       </c>
       <c r="F281">
         <v>0</v>
@@ -7679,11 +9351,14 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
+      <c r="C282" t="s">
+        <v>402</v>
+      </c>
       <c r="D282">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E282">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F282">
         <v>0</v>
@@ -7698,6 +9373,9 @@
         <f t="shared" si="8"/>
         <v>93</v>
       </c>
+      <c r="C283" t="s">
+        <v>403</v>
+      </c>
       <c r="D283">
         <v>0</v>
       </c>
@@ -7717,11 +9395,14 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
+      <c r="C284" t="s">
+        <v>404</v>
+      </c>
       <c r="D284">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E284">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F284">
         <v>0</v>
@@ -7736,11 +9417,14 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
+      <c r="C285" t="s">
+        <v>405</v>
+      </c>
       <c r="D285">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E285">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F285">
         <v>0</v>
@@ -7755,6 +9439,9 @@
         <f t="shared" si="8"/>
         <v>94</v>
       </c>
+      <c r="C286" t="s">
+        <v>406</v>
+      </c>
       <c r="D286">
         <v>0</v>
       </c>
@@ -7774,8 +9461,11 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
+      <c r="C287" t="s">
+        <v>407</v>
+      </c>
       <c r="D287">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E287">
         <v>0</v>
@@ -7793,14 +9483,17 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
+      <c r="C288" t="s">
+        <v>408</v>
+      </c>
       <c r="D288">
         <v>0</v>
       </c>
       <c r="E288">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F288">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.3">
@@ -7812,14 +9505,17 @@
         <f t="shared" si="8"/>
         <v>95</v>
       </c>
+      <c r="C289" t="s">
+        <v>409</v>
+      </c>
       <c r="D289">
         <v>0</v>
       </c>
       <c r="E289">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F289">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.3">
@@ -7831,11 +9527,14 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
+      <c r="C290" t="s">
+        <v>410</v>
+      </c>
       <c r="D290">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="E290">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F290">
         <v>0</v>
@@ -7850,11 +9549,14 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
+      <c r="C291" t="s">
+        <v>411</v>
+      </c>
       <c r="D291">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E291">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F291">
         <v>0</v>
@@ -7869,6 +9571,9 @@
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
+      <c r="C292" t="s">
+        <v>412</v>
+      </c>
       <c r="D292">
         <v>0</v>
       </c>
@@ -7888,6 +9593,9 @@
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
+      <c r="C293" t="s">
+        <v>413</v>
+      </c>
       <c r="D293">
         <v>5</v>
       </c>
@@ -7907,8 +9615,11 @@
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
+      <c r="C294" t="s">
+        <v>414</v>
+      </c>
       <c r="D294">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E294">
         <v>5</v>
@@ -7926,6 +9637,9 @@
         <f t="shared" si="8"/>
         <v>97</v>
       </c>
+      <c r="C295" t="s">
+        <v>415</v>
+      </c>
       <c r="D295">
         <v>0</v>
       </c>
@@ -7945,14 +9659,17 @@
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
+      <c r="C296" t="s">
+        <v>416</v>
+      </c>
       <c r="D296">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E296">
         <v>0</v>
       </c>
       <c r="F296">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -7964,11 +9681,14 @@
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
+      <c r="C297" t="s">
+        <v>417</v>
+      </c>
       <c r="D297">
         <v>0</v>
       </c>
       <c r="E297">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F297">
         <v>0</v>
@@ -7983,14 +9703,17 @@
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
+      <c r="C298" t="s">
+        <v>418</v>
+      </c>
       <c r="D298">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E298">
         <v>0</v>
       </c>
       <c r="F298">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
@@ -8002,8 +9725,11 @@
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="C299" t="s">
+        <v>419</v>
+      </c>
       <c r="D299">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="E299">
         <v>0</v>
@@ -8021,8 +9747,11 @@
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="C300" t="s">
+        <v>420</v>
+      </c>
       <c r="D300">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E300">
         <v>-5</v>
@@ -8040,6 +9769,9 @@
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
+      <c r="C301" t="s">
+        <v>421</v>
+      </c>
       <c r="D301">
         <v>0</v>
       </c>
@@ -8059,11 +9791,14 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
+      <c r="C302" t="s">
+        <v>422</v>
+      </c>
       <c r="D302">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E302">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F302">
         <v>0</v>
@@ -8078,11 +9813,14 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
+      <c r="C303" t="s">
+        <v>423</v>
+      </c>
       <c r="D303">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E303">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F303">
         <v>0</v>
@@ -8097,6 +9835,9 @@
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
+      <c r="C304" t="s">
+        <v>424</v>
+      </c>
       <c r="D304">
         <v>0</v>
       </c>
@@ -8116,8 +9857,11 @@
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
+      <c r="C305" t="s">
+        <v>425</v>
+      </c>
       <c r="D305">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="E305">
         <v>0</v>
@@ -8135,8 +9879,11 @@
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
+      <c r="C306" t="s">
+        <v>426</v>
+      </c>
       <c r="D306">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E306">
         <v>5</v>
@@ -8154,6 +9901,9 @@
         <f t="shared" si="8"/>
         <v>101</v>
       </c>
+      <c r="C307" t="s">
+        <v>427</v>
+      </c>
       <c r="D307">
         <v>0</v>
       </c>
@@ -8173,8 +9923,11 @@
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="C308" t="s">
+        <v>428</v>
+      </c>
       <c r="D308">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E308">
         <v>0</v>
@@ -8192,11 +9945,14 @@
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="C309" t="s">
+        <v>429</v>
+      </c>
       <c r="D309">
         <v>0</v>
       </c>
       <c r="E309">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F309">
         <v>0</v>
@@ -8211,6 +9967,9 @@
         <f t="shared" si="8"/>
         <v>102</v>
       </c>
+      <c r="C310" t="s">
+        <v>430</v>
+      </c>
       <c r="D310">
         <v>0</v>
       </c>
@@ -8230,11 +9989,14 @@
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
+      <c r="C311" t="s">
+        <v>431</v>
+      </c>
       <c r="D311">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F311">
         <v>0</v>
@@ -8249,11 +10011,14 @@
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
+      <c r="C312" t="s">
+        <v>432</v>
+      </c>
       <c r="D312">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E312">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F312">
         <v>0</v>
@@ -8268,6 +10033,9 @@
         <f t="shared" si="8"/>
         <v>103</v>
       </c>
+      <c r="C313" t="s">
+        <v>433</v>
+      </c>
       <c r="D313">
         <v>0</v>
       </c>
@@ -8287,8 +10055,11 @@
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
+      <c r="C314" t="s">
+        <v>434</v>
+      </c>
       <c r="D314">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E314">
         <v>0</v>
@@ -8306,8 +10077,11 @@
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
+      <c r="C315" t="s">
+        <v>435</v>
+      </c>
       <c r="D315">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E315">
         <v>5</v>
@@ -8325,6 +10099,9 @@
         <f t="shared" si="8"/>
         <v>104</v>
       </c>
+      <c r="C316" t="s">
+        <v>436</v>
+      </c>
       <c r="D316">
         <v>0</v>
       </c>
@@ -8344,8 +10121,11 @@
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
+      <c r="C317" t="s">
+        <v>437</v>
+      </c>
       <c r="D317">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="E317">
         <v>0</v>
@@ -8363,11 +10143,14 @@
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
+      <c r="C318" t="s">
+        <v>438</v>
+      </c>
       <c r="D318">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E318">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F318">
         <v>0</v>
@@ -8382,6 +10165,9 @@
         <f t="shared" si="8"/>
         <v>105</v>
       </c>
+      <c r="C319" t="s">
+        <v>439</v>
+      </c>
       <c r="D319">
         <v>0</v>
       </c>
@@ -8401,14 +10187,17 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="C320" t="s">
+        <v>440</v>
+      </c>
       <c r="D320">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E320">
         <v>0</v>
       </c>
       <c r="F320">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.3">
@@ -8420,11 +10209,14 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="C321" t="s">
+        <v>441</v>
+      </c>
       <c r="D321">
         <v>0</v>
       </c>
       <c r="E321">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="F321">
         <v>0</v>
@@ -8439,14 +10231,17 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
+      <c r="C322" t="s">
+        <v>442</v>
+      </c>
       <c r="D322">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E322">
         <v>0</v>
       </c>
       <c r="F322">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.3">
@@ -8458,8 +10253,11 @@
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
+      <c r="C323" t="s">
+        <v>443</v>
+      </c>
       <c r="D323">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E323">
         <v>0</v>
@@ -8477,14 +10275,17 @@
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
+      <c r="C324" t="s">
+        <v>444</v>
+      </c>
       <c r="D324">
         <v>0</v>
       </c>
       <c r="E324">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.3">
@@ -8496,14 +10297,17 @@
         <f t="shared" si="8"/>
         <v>107</v>
       </c>
+      <c r="C325" t="s">
+        <v>445</v>
+      </c>
       <c r="D325">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F325">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.3">
@@ -8515,6 +10319,9 @@
         <f t="shared" ref="B326:B361" si="10">B323+1</f>
         <v>108</v>
       </c>
+      <c r="C326" t="s">
+        <v>446</v>
+      </c>
       <c r="D326">
         <v>5</v>
       </c>
@@ -8534,11 +10341,14 @@
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
+      <c r="C327" t="s">
+        <v>447</v>
+      </c>
       <c r="D327">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E327">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -8553,14 +10363,17 @@
         <f t="shared" si="10"/>
         <v>108</v>
       </c>
+      <c r="C328" t="s">
+        <v>448</v>
+      </c>
       <c r="D328">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F328">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.3">
@@ -8572,11 +10385,14 @@
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
+      <c r="C329" t="s">
+        <v>449</v>
+      </c>
       <c r="D329">
+        <v>0</v>
+      </c>
+      <c r="E329">
         <v>-10</v>
-      </c>
-      <c r="E329">
-        <v>0</v>
       </c>
       <c r="F329">
         <v>0</v>
@@ -8591,6 +10407,9 @@
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
+      <c r="C330" t="s">
+        <v>450</v>
+      </c>
       <c r="D330">
         <v>0</v>
       </c>
@@ -8610,14 +10429,17 @@
         <f t="shared" si="10"/>
         <v>109</v>
       </c>
+      <c r="C331" t="s">
+        <v>451</v>
+      </c>
       <c r="D331">
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F331">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.3">
@@ -8629,11 +10451,14 @@
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
+      <c r="C332" t="s">
+        <v>452</v>
+      </c>
       <c r="D332">
         <v>10</v>
       </c>
       <c r="E332">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F332">
         <v>0</v>
@@ -8648,14 +10473,17 @@
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
+      <c r="C333" t="s">
+        <v>453</v>
+      </c>
       <c r="D333">
         <v>0</v>
       </c>
       <c r="E333">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.3">
@@ -8667,14 +10495,17 @@
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
+      <c r="C334" t="s">
+        <v>454</v>
+      </c>
       <c r="D334">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E334">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F334">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.3">
@@ -8686,11 +10517,14 @@
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
+      <c r="C335" t="s">
+        <v>455</v>
+      </c>
       <c r="D335">
+        <v>0</v>
+      </c>
+      <c r="E335">
         <v>5</v>
-      </c>
-      <c r="E335">
-        <v>0</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -8705,11 +10539,14 @@
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
+      <c r="C336" t="s">
+        <v>456</v>
+      </c>
       <c r="D336">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E336">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F336">
         <v>0</v>
@@ -8724,6 +10561,9 @@
         <f t="shared" si="10"/>
         <v>111</v>
       </c>
+      <c r="C337" t="s">
+        <v>457</v>
+      </c>
       <c r="D337">
         <v>0</v>
       </c>
@@ -8743,8 +10583,11 @@
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
+      <c r="C338" t="s">
+        <v>458</v>
+      </c>
       <c r="D338">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -8762,11 +10605,14 @@
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
+      <c r="C339" t="s">
+        <v>459</v>
+      </c>
       <c r="D339">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E339">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F339">
         <v>0</v>
@@ -8781,14 +10627,17 @@
         <f t="shared" si="10"/>
         <v>112</v>
       </c>
+      <c r="C340" t="s">
+        <v>460</v>
+      </c>
       <c r="D340">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E340">
         <v>0</v>
       </c>
       <c r="F340">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.3">
@@ -8800,11 +10649,14 @@
         <f t="shared" si="10"/>
         <v>113</v>
       </c>
+      <c r="C341" t="s">
+        <v>461</v>
+      </c>
       <c r="D341">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="E341">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F341">
         <v>0</v>
@@ -8819,8 +10671,11 @@
         <f t="shared" si="10"/>
         <v>113</v>
       </c>
+      <c r="C342" t="s">
+        <v>462</v>
+      </c>
       <c r="D342">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E342">
         <v>-5</v>
@@ -8838,6 +10693,9 @@
         <f t="shared" si="10"/>
         <v>113</v>
       </c>
+      <c r="C343" t="s">
+        <v>463</v>
+      </c>
       <c r="D343">
         <v>0</v>
       </c>
@@ -8857,14 +10715,17 @@
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
+      <c r="C344" t="s">
+        <v>464</v>
+      </c>
       <c r="D344">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.3">
@@ -8876,11 +10737,14 @@
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
+      <c r="C345" t="s">
+        <v>465</v>
+      </c>
       <c r="D345">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E345">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F345">
         <v>0</v>
@@ -8895,14 +10759,17 @@
         <f t="shared" si="10"/>
         <v>114</v>
       </c>
+      <c r="C346" t="s">
+        <v>466</v>
+      </c>
       <c r="D346">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E346">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F346">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.3">
@@ -8914,11 +10781,14 @@
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
+      <c r="C347" t="s">
+        <v>467</v>
+      </c>
       <c r="D347">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E347">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F347">
         <v>0</v>
@@ -8933,8 +10803,11 @@
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
+      <c r="C348" t="s">
+        <v>468</v>
+      </c>
       <c r="D348">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E348">
         <v>5</v>
@@ -8952,6 +10825,9 @@
         <f t="shared" si="10"/>
         <v>115</v>
       </c>
+      <c r="C349" t="s">
+        <v>469</v>
+      </c>
       <c r="D349">
         <v>0</v>
       </c>
@@ -8971,8 +10847,11 @@
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
+      <c r="C350" t="s">
+        <v>470</v>
+      </c>
       <c r="D350">
-        <v>-10</v>
+        <v>10</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -8990,11 +10869,14 @@
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
+      <c r="C351" t="s">
+        <v>471</v>
+      </c>
       <c r="D351">
         <v>0</v>
       </c>
       <c r="E351">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="F351">
         <v>0</v>
@@ -9009,6 +10891,9 @@
         <f t="shared" si="10"/>
         <v>116</v>
       </c>
+      <c r="C352" t="s">
+        <v>472</v>
+      </c>
       <c r="D352">
         <v>0</v>
       </c>
@@ -9028,11 +10913,14 @@
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
+      <c r="C353" t="s">
+        <v>473</v>
+      </c>
       <c r="D353">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E353">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F353">
         <v>0</v>
@@ -9047,14 +10935,17 @@
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
+      <c r="C354" t="s">
+        <v>474</v>
+      </c>
       <c r="D354">
         <v>0</v>
       </c>
       <c r="E354">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F354">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.3">
@@ -9066,14 +10957,17 @@
         <f t="shared" si="10"/>
         <v>117</v>
       </c>
+      <c r="C355" t="s">
+        <v>475</v>
+      </c>
       <c r="D355">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E355">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F355">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.3">
@@ -9085,11 +10979,14 @@
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
+      <c r="C356" t="s">
+        <v>476</v>
+      </c>
       <c r="D356">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="F356">
         <v>0</v>
@@ -9104,11 +11001,14 @@
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
+      <c r="C357" t="s">
+        <v>477</v>
+      </c>
       <c r="D357">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E357">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F357">
         <v>0</v>
@@ -9123,6 +11023,9 @@
         <f t="shared" si="10"/>
         <v>118</v>
       </c>
+      <c r="C358" t="s">
+        <v>478</v>
+      </c>
       <c r="D358">
         <v>0</v>
       </c>
@@ -9142,11 +11045,14 @@
         <f t="shared" si="10"/>
         <v>119</v>
       </c>
+      <c r="C359" t="s">
+        <v>479</v>
+      </c>
       <c r="D359">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F359">
         <v>0</v>
@@ -9161,11 +11067,14 @@
         <f t="shared" si="10"/>
         <v>119</v>
       </c>
+      <c r="C360" t="s">
+        <v>480</v>
+      </c>
       <c r="D360">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E360">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="F360">
         <v>0</v>
@@ -9180,6 +11089,9 @@
         <f t="shared" si="10"/>
         <v>119</v>
       </c>
+      <c r="C361" t="s">
+        <v>481</v>
+      </c>
       <c r="D361">
         <v>0</v>
       </c>
@@ -9193,6 +11105,5 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/Conversation.xlsx
+++ b/Excel/Conversation.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theki\Documents\UnityProject\ZombieSimul\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7710" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Question" sheetId="1" r:id="rId1"/>
     <sheet name="Answer" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Answer!$A$1:$F$283</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Answer!$A$1:$G$403</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Question!$A$1:$C$95</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="536">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1275,21 +1270,12 @@
     <t xml:space="preserve">열쇠는 잘 잃어버리는 편? </t>
   </si>
   <si>
-    <t>밤이 좋아@ 낮이 좋아?</t>
-  </si>
-  <si>
-    <t>파란색이 좋아@ 빨간색이 좋아?</t>
-  </si>
-  <si>
     <t>정말 그렇게 생각해?</t>
   </si>
   <si>
     <t xml:space="preserve">진짜? </t>
   </si>
   <si>
-    <t>콜라가 좋아@ 사이다가 좋아?</t>
-  </si>
-  <si>
     <t>차는 검은색이 좋아 하얀색이 좋아?</t>
   </si>
   <si>
@@ -1320,12 +1306,6 @@
     <t xml:space="preserve">우유는 어떤걸 좋아해? </t>
   </si>
   <si>
-    <t>응@ 안녕</t>
-  </si>
-  <si>
-    <t>아…안녕?</t>
-  </si>
-  <si>
     <t>(무시한다)</t>
   </si>
   <si>
@@ -1335,27 +1315,12 @@
     <t>아무것도…</t>
   </si>
   <si>
-    <t xml:space="preserve">안녕? </t>
-  </si>
-  <si>
-    <t>여긴 먹을게 없어</t>
-  </si>
-  <si>
     <t>아무것도</t>
   </si>
   <si>
-    <t>나 안먹어도 배불러</t>
-  </si>
-  <si>
     <t>검은색</t>
   </si>
   <si>
-    <t>하얀색</t>
-  </si>
-  <si>
-    <t>보라색</t>
-  </si>
-  <si>
     <t>숏컷이 좋아</t>
   </si>
   <si>
@@ -1386,12 +1351,6 @@
     <t>월요일</t>
   </si>
   <si>
-    <t>화요일</t>
-  </si>
-  <si>
-    <t>목요일</t>
-  </si>
-  <si>
     <t>봄</t>
   </si>
   <si>
@@ -1410,18 +1369,12 @@
     <t>로또를 살꺼야</t>
   </si>
   <si>
-    <t>잘생긴 사람</t>
-  </si>
-  <si>
     <t>돈 많은 사람</t>
   </si>
   <si>
     <t>밥 잘사주는 사람</t>
   </si>
   <si>
-    <t>말 많은 사람</t>
-  </si>
-  <si>
     <t>화가 많은 사람</t>
   </si>
   <si>
@@ -1446,24 +1399,9 @@
     <t>이탈리아</t>
   </si>
   <si>
-    <t>닭도리탕을 잘해</t>
-  </si>
-  <si>
     <t>김치찌개는 쉬운것 같아</t>
   </si>
   <si>
-    <t xml:space="preserve">요리는 잘 못해@ 먹는거밖엔 </t>
-  </si>
-  <si>
-    <t>사과나무를 심고 싶어</t>
-  </si>
-  <si>
-    <t>배나무를 심고 싶어</t>
-  </si>
-  <si>
-    <t>삼겹살….</t>
-  </si>
-  <si>
     <t>약간 불쌍해보여</t>
   </si>
   <si>
@@ -1473,33 +1411,15 @@
     <t>약간 맛있어보여</t>
   </si>
   <si>
-    <t>맥…ㅅ@ 잡지 종류를 좋아해</t>
-  </si>
-  <si>
     <t>전공 도서가 좋아</t>
   </si>
   <si>
     <t>요리책을 자주 봐</t>
   </si>
   <si>
-    <t>응@ 좋아해</t>
-  </si>
-  <si>
-    <t>아니@ 별로</t>
-  </si>
-  <si>
-    <t>넌 귀여워</t>
-  </si>
-  <si>
     <t>넌 섹시한거 같아</t>
   </si>
   <si>
-    <t>창백해보여</t>
-  </si>
-  <si>
-    <t>아파 보여</t>
-  </si>
-  <si>
     <t xml:space="preserve">배고파 보여 </t>
   </si>
   <si>
@@ -1512,33 +1432,12 @@
     <t xml:space="preserve">왜 그런걸 물어? </t>
   </si>
   <si>
-    <t>응@ 좋아 보인다</t>
-  </si>
-  <si>
     <t>흐린것 같은데?</t>
   </si>
   <si>
-    <t>응@ 너랑 있으니까 좋다</t>
-  </si>
-  <si>
-    <t>응@ 읽어 봤어</t>
-  </si>
-  <si>
-    <t>아니@ 잘 모르겠어</t>
-  </si>
-  <si>
     <t>책은 라면 받침대로만 써봤어</t>
   </si>
   <si>
-    <t>응@ 종종 잃어 버려</t>
-  </si>
-  <si>
-    <t>아니@ 잃어버리지 않아</t>
-  </si>
-  <si>
-    <t xml:space="preserve">니가 들고 있지 않아? </t>
-  </si>
-  <si>
     <t>밤이 좋아.</t>
   </si>
   <si>
@@ -1560,21 +1459,12 @@
     <t xml:space="preserve">응? 뭐가? </t>
   </si>
   <si>
-    <t>응@ 그렇게 생각해.</t>
-  </si>
-  <si>
     <t>무슨 말이야? 잘 모르겠어</t>
   </si>
   <si>
     <t>응~ 진짜</t>
   </si>
   <si>
-    <t>그래? 진짜라고?</t>
-  </si>
-  <si>
-    <t>아니@ 뭐가?</t>
-  </si>
-  <si>
     <t>콜라가 좋아.</t>
   </si>
   <si>
@@ -1611,52 +1501,25 @@
     <t xml:space="preserve">빅밴이 있는 나라지? </t>
   </si>
   <si>
-    <t xml:space="preserve">테이트 모던이 있는 나라지? </t>
-  </si>
-  <si>
     <t>피시앤 칩스가 있는 나라지?</t>
   </si>
   <si>
     <t>축구가 유명한 나라지?</t>
   </si>
   <si>
-    <t>플라 밍고가 유명한 나라지?</t>
-  </si>
-  <si>
     <t>해산물이 유명한 나라지?</t>
   </si>
   <si>
-    <t>아니@ 별로 좋아하지 않아</t>
-  </si>
-  <si>
     <t>지금 먹으러 갈래?</t>
   </si>
   <si>
-    <t>아니@ 정말 별로야</t>
-  </si>
-  <si>
     <t>저축을 많이 하는거지</t>
   </si>
   <si>
-    <t>투자를 많이 하는거지</t>
-  </si>
-  <si>
     <t>집에서 밥을 먹는 거지</t>
   </si>
   <si>
-    <t>큰 집을 살꺼야</t>
-  </si>
-  <si>
-    <t>좋은 차를 살꺼야</t>
-  </si>
-  <si>
     <t xml:space="preserve">맛있는 밥을 살꺼야 </t>
-  </si>
-  <si>
-    <t>흰우유를 좋아해</t>
-  </si>
-  <si>
-    <t>커피우유를 좋아해</t>
   </si>
   <si>
     <t>우유엔 쿠키지!</t>
@@ -1668,12 +1531,150 @@
   <si>
     <t>어쩌면@ 원래 인기척이 드문 곳이 아닐까?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밤이 좋아, 낮이 좋아?</t>
+  </si>
+  <si>
+    <t>파란색이 좋아, 빨간색이 좋아?</t>
+  </si>
+  <si>
+    <t>콜라가 좋아, 사이다가 좋아?</t>
+  </si>
+  <si>
+    <t>아@ 안녕</t>
+  </si>
+  <si>
+    <t>배고프다</t>
+  </si>
+  <si>
+    <t>배고프다.</t>
+  </si>
+  <si>
+    <t>넌? 먹고 싶은거 있어?</t>
+  </si>
+  <si>
+    <t>난 이미 배불러</t>
+  </si>
+  <si>
+    <t>니 피부같은 보라색</t>
+  </si>
+  <si>
+    <t>피자색</t>
+  </si>
+  <si>
+    <t>금요일</t>
+  </si>
+  <si>
+    <t>수요일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">너랑 </t>
+  </si>
+  <si>
+    <t>난 딱히 그런 사람 없어</t>
+  </si>
+  <si>
+    <t>닭도리탕을 잘해. 해줄까?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">요리는 잘 못해, 먹는거밖엔 </t>
+  </si>
+  <si>
+    <t>너랑 사과나무를 심고 싶어</t>
+  </si>
+  <si>
+    <t xml:space="preserve">패스트푸드? </t>
+  </si>
+  <si>
+    <t>음식이라면 뭐든 좋아</t>
+  </si>
+  <si>
+    <t>맥…ㅅ.. 잡지 종류를 좋아해</t>
+  </si>
+  <si>
+    <t xml:space="preserve">응 좋아해. </t>
+  </si>
+  <si>
+    <t>아니. 별로</t>
+  </si>
+  <si>
+    <t>통통한게 더 좋더라</t>
+  </si>
+  <si>
+    <t>응 좋아해.</t>
+  </si>
+  <si>
+    <t>예뻐. 좀 창백하지만</t>
+  </si>
+  <si>
+    <t>아파 보인다</t>
+  </si>
+  <si>
+    <t>응. 좋아 보인다</t>
+  </si>
+  <si>
+    <t>응. 너랑 있으니까 좋다</t>
+  </si>
+  <si>
+    <t>응. 읽어 봤어</t>
+  </si>
+  <si>
+    <t>아니. 잘 모르겠어</t>
+  </si>
+  <si>
+    <t>응. 종종 잃어 버려</t>
+  </si>
+  <si>
+    <t>아니. 잃어버리지 않아</t>
+  </si>
+  <si>
+    <t xml:space="preserve">어 없네. 니가 들고 있지 않아? </t>
+  </si>
+  <si>
+    <t>응 그렇게 생각해.</t>
+  </si>
+  <si>
+    <t>진짜? 뭐가 진짜?</t>
+  </si>
+  <si>
+    <t>난 진짜야</t>
+  </si>
+  <si>
+    <t>루브르가 있는 나라지?</t>
+  </si>
+  <si>
+    <t>트럼프가 유명한 나라지?</t>
+  </si>
+  <si>
+    <t>응. 좋아해</t>
+  </si>
+  <si>
+    <t>아니. 별로 좋아하지 않아</t>
+  </si>
+  <si>
+    <t>아니. 정말 별로야</t>
+  </si>
+  <si>
+    <t>주식을 많이 하는거지</t>
+  </si>
+  <si>
+    <t>너랑 살 큰 집을 살꺼야</t>
+  </si>
+  <si>
+    <t>이번기회에 외제차를 장만해야지</t>
+  </si>
+  <si>
+    <t>넌 흰우유를 좋아하지? 그럼 나도 그거</t>
+  </si>
+  <si>
+    <t>나 과민성대장증후군이라…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2005,18 +2006,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3712,7 +3713,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>403</v>
+        <v>490</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -3726,7 +3727,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>404</v>
+        <v>491</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -3740,7 +3741,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -3754,7 +3755,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -3768,7 +3769,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>407</v>
+        <v>492</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -3782,7 +3783,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -3796,7 +3797,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -3810,7 +3811,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -3824,7 +3825,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -3838,7 +3839,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -3852,7 +3853,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -3866,7 +3867,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -3880,7 +3881,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -3894,7 +3895,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -3908,7 +3909,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -3924,17 +3925,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="7.75" customWidth="1"/>
     <col min="3" max="3" width="29.875" customWidth="1"/>
+    <col min="9" max="9" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3957,7 +3960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3977,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3997,7 +4000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4017,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4059,7 +4062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4101,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4122,7 +4125,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4143,7 +4146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4164,7 +4167,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4206,7 +4209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4248,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4290,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4311,7 +4314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4353,7 +4356,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4374,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -4437,7 +4440,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -4458,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4521,7 +4524,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4542,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4563,7 +4566,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4605,7 +4608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4647,7 +4650,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4668,7 +4671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4689,7 +4692,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4710,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4731,7 +4734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4773,7 +4776,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4794,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4836,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4857,7 +4860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4878,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4899,7 +4902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4920,7 +4923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4941,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4956,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4983,7 +4986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -5004,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -5025,7 +5028,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -5046,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -5067,7 +5070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -5088,7 +5091,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -5151,7 +5154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -5172,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -5193,7 +5196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -5214,7 +5217,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -5235,7 +5238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -5256,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -5298,7 +5301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -5319,7 +5322,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -5340,7 +5343,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -5361,7 +5364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -5382,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -5403,7 +5406,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -5424,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -5487,7 +5490,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -5508,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -5523,13 +5526,13 @@
         <v>0</v>
       </c>
       <c r="E76">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -5571,7 +5574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -5613,7 +5616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -5628,13 +5631,13 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -5655,7 +5658,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -5676,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -5697,7 +5700,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -5718,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -5760,7 +5763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5781,7 +5784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5796,13 +5799,13 @@
         <v>0</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5817,13 +5820,13 @@
         <v>0</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5844,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5865,7 +5868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5886,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5907,7 +5910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5928,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5949,7 +5952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5970,7 +5973,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5991,7 +5994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -6012,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -6075,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -6096,7 +6099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -6117,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -6138,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -6159,7 +6162,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -6243,7 +6246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -6285,7 +6288,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -6300,13 +6303,13 @@
         <v>0</v>
       </c>
       <c r="E113">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -6327,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -6348,7 +6351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -6369,7 +6372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -6390,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -6453,7 +6456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -6474,7 +6477,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -6495,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -6516,7 +6519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -6558,7 +6561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -6579,7 +6582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -6600,7 +6603,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -6621,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -6663,7 +6666,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -6705,7 +6708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -6726,7 +6729,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -6747,7 +6750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -6789,7 +6792,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -6810,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -6831,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -6852,7 +6855,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -6873,7 +6876,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -6915,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -6927,7 +6930,7 @@
         <v>214</v>
       </c>
       <c r="D143">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -6936,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -6957,7 +6960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -6972,13 +6975,13 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -6999,7 +7002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -7011,7 +7014,7 @@
         <v>218</v>
       </c>
       <c r="D147">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -7020,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -7041,7 +7044,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -7062,7 +7065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -7083,7 +7086,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -7104,7 +7107,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>223</v>
       </c>
       <c r="D152">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E152">
         <v>0</v>
@@ -7125,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -7146,7 +7149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -7158,10 +7161,10 @@
         <v>225</v>
       </c>
       <c r="D154">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E154">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F154">
         <v>0</v>
@@ -7179,16 +7182,16 @@
         <v>226</v>
       </c>
       <c r="D155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E155">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -7209,7 +7212,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -7230,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -7263,16 +7266,16 @@
         <v>230</v>
       </c>
       <c r="D159">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F159">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -7293,7 +7296,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -7308,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="E161">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -7329,13 +7332,13 @@
         <v>0</v>
       </c>
       <c r="E162">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -7350,13 +7353,13 @@
         <v>0</v>
       </c>
       <c r="E163">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F163">
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -7377,7 +7380,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -7413,7 +7416,7 @@
         <v>5</v>
       </c>
       <c r="E166">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -7431,16 +7434,16 @@
         <v>238</v>
       </c>
       <c r="D167">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E167">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -7461,7 +7464,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -7473,7 +7476,7 @@
         <v>240</v>
       </c>
       <c r="D169">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7482,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -7494,16 +7497,16 @@
         <v>241</v>
       </c>
       <c r="D170">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E170">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F170">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -7539,13 +7542,13 @@
         <v>5</v>
       </c>
       <c r="E172">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F172">
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -7560,13 +7563,13 @@
         <v>0</v>
       </c>
       <c r="E173">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F173">
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -7587,7 +7590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7629,7 +7632,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7665,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="E178">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F178">
         <v>-1</v>
@@ -7692,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7704,7 +7707,7 @@
         <v>251</v>
       </c>
       <c r="D180">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E180">
         <v>0</v>
@@ -7713,7 +7716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7755,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7776,7 +7779,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F185">
         <v>0</v>
@@ -7839,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>259</v>
       </c>
       <c r="D188">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -7881,7 +7884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7893,7 +7896,7 @@
         <v>260</v>
       </c>
       <c r="D189">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -7902,7 +7905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7944,7 +7947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7959,13 +7962,13 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F192">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7980,13 +7983,13 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F193">
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -8007,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -8019,16 +8022,16 @@
         <v>266</v>
       </c>
       <c r="D195">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E195">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F195">
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -8049,7 +8052,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -8061,7 +8064,7 @@
         <v>268</v>
       </c>
       <c r="D197">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8070,7 +8073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -8082,7 +8085,7 @@
         <v>269</v>
       </c>
       <c r="D198">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -8091,7 +8094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -8154,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -8166,16 +8169,16 @@
         <v>273</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E202">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F202">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8187,7 +8190,7 @@
         <v>274</v>
       </c>
       <c r="D203">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8196,7 +8199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8232,13 +8235,13 @@
         <v>5</v>
       </c>
       <c r="E205">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F205">
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8259,7 +8262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8271,16 +8274,16 @@
         <v>278</v>
       </c>
       <c r="D207">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E207">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8301,7 +8304,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8337,13 +8340,13 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F210">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8364,7 +8367,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8385,7 +8388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8400,13 +8403,13 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F213">
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8427,7 +8430,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8442,7 +8445,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F215">
         <v>0</v>
@@ -8490,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8511,7 +8514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8526,13 +8529,13 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F219">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8565,16 +8568,16 @@
         <v>291</v>
       </c>
       <c r="D221">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E221">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F221">
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8628,10 +8631,10 @@
         <v>294</v>
       </c>
       <c r="D224">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E224">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F224">
         <v>0</v>
@@ -8649,16 +8652,16 @@
         <v>295</v>
       </c>
       <c r="D225">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E225">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F225">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8700,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8712,16 +8715,16 @@
         <v>298</v>
       </c>
       <c r="D228">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E228">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F228">
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8736,13 +8739,13 @@
         <v>0</v>
       </c>
       <c r="E229">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8763,7 +8766,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -8793,19 +8796,19 @@
         <v>76</v>
       </c>
       <c r="C232" t="s">
-        <v>532</v>
+        <v>488</v>
       </c>
       <c r="D232">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E232">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F232">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -8826,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -8841,13 +8844,13 @@
         <v>0</v>
       </c>
       <c r="E234">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -8868,7 +8871,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -8883,13 +8886,13 @@
         <v>0</v>
       </c>
       <c r="E236">
-        <v>-10</v>
+        <v>15</v>
       </c>
       <c r="F236">
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -8910,7 +8913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -8931,7 +8934,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -8952,7 +8955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -8973,7 +8976,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -8988,13 +8991,13 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9006,16 +9009,16 @@
         <v>311</v>
       </c>
       <c r="D242">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E242">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F242">
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9078,7 +9081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9090,16 +9093,16 @@
         <v>315</v>
       </c>
       <c r="D246">
+        <v>-20</v>
+      </c>
+      <c r="E246">
         <v>-10</v>
       </c>
-      <c r="E246">
-        <v>5</v>
-      </c>
       <c r="F246">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9141,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9153,16 +9156,16 @@
         <v>318</v>
       </c>
       <c r="D249">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E249">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F249">
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9198,13 +9201,13 @@
         <v>5</v>
       </c>
       <c r="E251">
-        <v>15</v>
+        <v>-20</v>
       </c>
       <c r="F251">
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9246,7 +9249,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>323</v>
       </c>
       <c r="D254">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E254">
         <v>0</v>
@@ -9267,7 +9270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9279,16 +9282,16 @@
         <v>324</v>
       </c>
       <c r="D255">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E255">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9309,7 +9312,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9324,13 +9327,13 @@
         <v>0</v>
       </c>
       <c r="E257">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9351,7 +9354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>257</v>
       </c>
@@ -9393,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>259</v>
       </c>
@@ -9405,16 +9408,16 @@
         <v>330</v>
       </c>
       <c r="D261">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E261">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>260</v>
       </c>
@@ -9435,7 +9438,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>261</v>
       </c>
@@ -9447,16 +9450,16 @@
         <v>331</v>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E263">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>262</v>
       </c>
@@ -9489,16 +9492,16 @@
         <v>333</v>
       </c>
       <c r="D265">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E265">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>264</v>
       </c>
@@ -9513,13 +9516,13 @@
         <v>0</v>
       </c>
       <c r="E266">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>265</v>
       </c>
@@ -9540,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>266</v>
       </c>
@@ -9561,7 +9564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>267</v>
       </c>
@@ -9573,7 +9576,7 @@
         <v>337</v>
       </c>
       <c r="D269">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E269">
         <v>0</v>
@@ -9582,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>268</v>
       </c>
@@ -9594,7 +9597,7 @@
         <v>338</v>
       </c>
       <c r="D270">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E270">
         <v>0</v>
@@ -9603,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>269</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>339</v>
       </c>
       <c r="D271">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="E271">
         <v>0</v>
@@ -9624,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>270</v>
       </c>
@@ -9639,13 +9642,13 @@
         <v>0</v>
       </c>
       <c r="E272">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>271</v>
       </c>
@@ -9657,16 +9660,16 @@
         <v>341</v>
       </c>
       <c r="D273">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E273">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>272</v>
       </c>
@@ -9687,7 +9690,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>273</v>
       </c>
@@ -9702,13 +9705,13 @@
         <v>0</v>
       </c>
       <c r="E275">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F275">
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>274</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>91</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>533</v>
+        <v>489</v>
       </c>
       <c r="D276">
         <v>0</v>
@@ -9729,7 +9732,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>275</v>
       </c>
@@ -9741,16 +9744,16 @@
         <v>344</v>
       </c>
       <c r="D277">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E277">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F277">
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>276</v>
       </c>
@@ -9765,13 +9768,13 @@
         <v>0</v>
       </c>
       <c r="E278">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>277</v>
       </c>
@@ -9792,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>278</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>279</v>
       </c>
@@ -9828,13 +9831,13 @@
         <v>0</v>
       </c>
       <c r="E281">
-        <v>5</v>
+        <v>-10</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>280</v>
       </c>
@@ -9855,7 +9858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>281</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>282</v>
       </c>
@@ -9885,7 +9888,7 @@
         <v>94</v>
       </c>
       <c r="C284" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D284">
         <v>0</v>
@@ -9897,7 +9900,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>283</v>
       </c>
@@ -9906,19 +9909,19 @@
         <v>94</v>
       </c>
       <c r="C285" t="s">
-        <v>419</v>
+        <v>493</v>
       </c>
       <c r="D285">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E285">
         <v>0</v>
       </c>
       <c r="F285">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>284</v>
       </c>
@@ -9927,7 +9930,7 @@
         <v>94</v>
       </c>
       <c r="C286" t="s">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -9939,7 +9942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>285</v>
       </c>
@@ -9948,19 +9951,19 @@
         <v>95</v>
       </c>
       <c r="C287" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="D287">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E287">
         <v>0</v>
       </c>
       <c r="F287">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>286</v>
       </c>
@@ -9969,7 +9972,7 @@
         <v>95</v>
       </c>
       <c r="C288" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -9981,7 +9984,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>287</v>
       </c>
@@ -9990,7 +9993,7 @@
         <v>95</v>
       </c>
       <c r="C289" t="s">
-        <v>423</v>
+        <v>495</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -10002,7 +10005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>288</v>
       </c>
@@ -10011,19 +10014,19 @@
         <v>96</v>
       </c>
       <c r="C290" t="s">
-        <v>424</v>
+        <v>496</v>
       </c>
       <c r="D290">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E290">
         <v>0</v>
       </c>
       <c r="F290">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>289</v>
       </c>
@@ -10032,7 +10035,7 @@
         <v>96</v>
       </c>
       <c r="C291" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="D291">
         <v>0</v>
@@ -10044,7 +10047,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>290</v>
       </c>
@@ -10053,7 +10056,7 @@
         <v>96</v>
       </c>
       <c r="C292" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="D292">
         <v>0</v>
@@ -10065,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>291</v>
       </c>
@@ -10074,19 +10077,19 @@
         <v>97</v>
       </c>
       <c r="C293" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="D293">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E293">
         <v>0</v>
       </c>
       <c r="F293">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>292</v>
       </c>
@@ -10095,7 +10098,7 @@
         <v>97</v>
       </c>
       <c r="C294" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D294">
         <v>0</v>
@@ -10107,7 +10110,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>293</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>97</v>
       </c>
       <c r="C295" t="s">
-        <v>429</v>
+        <v>499</v>
       </c>
       <c r="D295">
         <v>0</v>
@@ -10128,7 +10131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>294</v>
       </c>
@@ -10137,19 +10140,19 @@
         <v>98</v>
       </c>
       <c r="C296" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="D296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296">
         <v>0</v>
       </c>
       <c r="F296">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>295</v>
       </c>
@@ -10158,7 +10161,7 @@
         <v>98</v>
       </c>
       <c r="C297" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D297">
         <v>0</v>
@@ -10170,7 +10173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>296</v>
       </c>
@@ -10179,7 +10182,7 @@
         <v>98</v>
       </c>
       <c r="C298" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="D298">
         <v>0</v>
@@ -10191,7 +10194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>297</v>
       </c>
@@ -10200,19 +10203,19 @@
         <v>99</v>
       </c>
       <c r="C299" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E299">
         <v>0</v>
       </c>
       <c r="F299">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>298</v>
       </c>
@@ -10221,7 +10224,7 @@
         <v>99</v>
       </c>
       <c r="C300" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D300">
         <v>0</v>
@@ -10233,7 +10236,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>299</v>
       </c>
@@ -10242,7 +10245,7 @@
         <v>99</v>
       </c>
       <c r="C301" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="D301">
         <v>0</v>
@@ -10254,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>300</v>
       </c>
@@ -10263,19 +10266,19 @@
         <v>100</v>
       </c>
       <c r="C302" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="D302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E302">
         <v>0</v>
       </c>
       <c r="F302">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>301</v>
       </c>
@@ -10284,7 +10287,7 @@
         <v>100</v>
       </c>
       <c r="C303" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="D303">
         <v>0</v>
@@ -10296,7 +10299,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>302</v>
       </c>
@@ -10305,7 +10308,7 @@
         <v>100</v>
       </c>
       <c r="C304" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D304">
         <v>0</v>
@@ -10317,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>303</v>
       </c>
@@ -10326,19 +10329,19 @@
         <v>101</v>
       </c>
       <c r="C305" t="s">
-        <v>439</v>
+        <v>500</v>
       </c>
       <c r="D305">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E305">
         <v>0</v>
       </c>
       <c r="F305">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>304</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>101</v>
       </c>
       <c r="C306" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D306">
         <v>0</v>
@@ -10359,7 +10362,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>305</v>
       </c>
@@ -10368,7 +10371,7 @@
         <v>101</v>
       </c>
       <c r="C307" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="D307">
         <v>0</v>
@@ -10380,7 +10383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>306</v>
       </c>
@@ -10389,19 +10392,19 @@
         <v>102</v>
       </c>
       <c r="C308" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E308">
         <v>0</v>
       </c>
       <c r="F308">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>307</v>
       </c>
@@ -10410,7 +10413,7 @@
         <v>102</v>
       </c>
       <c r="C309" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="D309">
         <v>0</v>
@@ -10422,7 +10425,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>308</v>
       </c>
@@ -10431,7 +10434,7 @@
         <v>102</v>
       </c>
       <c r="C310" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="D310">
         <v>0</v>
@@ -10443,7 +10446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>309</v>
       </c>
@@ -10452,19 +10455,19 @@
         <v>103</v>
       </c>
       <c r="C311" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D311">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E311">
         <v>0</v>
       </c>
       <c r="F311">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>310</v>
       </c>
@@ -10473,7 +10476,7 @@
         <v>103</v>
       </c>
       <c r="C312" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="D312">
         <v>0</v>
@@ -10485,7 +10488,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>311</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>103</v>
       </c>
       <c r="C313" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="D313">
         <v>0</v>
@@ -10506,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>312</v>
       </c>
@@ -10515,19 +10518,19 @@
         <v>104</v>
       </c>
       <c r="C314" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E314">
         <v>0</v>
       </c>
       <c r="F314">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>313</v>
       </c>
@@ -10536,7 +10539,7 @@
         <v>104</v>
       </c>
       <c r="C315" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D315">
         <v>0</v>
@@ -10548,7 +10551,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>314</v>
       </c>
@@ -10557,7 +10560,7 @@
         <v>104</v>
       </c>
       <c r="C316" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="D316">
         <v>0</v>
@@ -10569,7 +10572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>315</v>
       </c>
@@ -10578,19 +10581,19 @@
         <v>105</v>
       </c>
       <c r="C317" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E317">
         <v>0</v>
       </c>
       <c r="F317">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>316</v>
       </c>
@@ -10599,7 +10602,7 @@
         <v>105</v>
       </c>
       <c r="C318" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D318">
         <v>0</v>
@@ -10611,7 +10614,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>317</v>
       </c>
@@ -10620,7 +10623,7 @@
         <v>105</v>
       </c>
       <c r="C319" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="D319">
         <v>0</v>
@@ -10632,7 +10635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>318</v>
       </c>
@@ -10641,19 +10644,19 @@
         <v>106</v>
       </c>
       <c r="C320" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D320">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E320">
         <v>0</v>
       </c>
       <c r="F320">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>319</v>
       </c>
@@ -10662,7 +10665,7 @@
         <v>106</v>
       </c>
       <c r="C321" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D321">
         <v>0</v>
@@ -10674,7 +10677,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>320</v>
       </c>
@@ -10683,7 +10686,7 @@
         <v>106</v>
       </c>
       <c r="C322" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="D322">
         <v>0</v>
@@ -10695,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>321</v>
       </c>
@@ -10704,19 +10707,19 @@
         <v>107</v>
       </c>
       <c r="C323" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="D323">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E323">
         <v>0</v>
       </c>
       <c r="F323">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>322</v>
       </c>
@@ -10725,7 +10728,7 @@
         <v>107</v>
       </c>
       <c r="C324" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="D324">
         <v>0</v>
@@ -10737,7 +10740,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>323</v>
       </c>
@@ -10746,7 +10749,7 @@
         <v>107</v>
       </c>
       <c r="C325" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D325">
         <v>0</v>
@@ -10758,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>324</v>
       </c>
@@ -10767,19 +10770,19 @@
         <v>108</v>
       </c>
       <c r="C326" t="s">
-        <v>460</v>
+        <v>504</v>
       </c>
       <c r="D326">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E326">
         <v>0</v>
       </c>
       <c r="F326">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>325</v>
       </c>
@@ -10788,7 +10791,7 @@
         <v>108</v>
       </c>
       <c r="C327" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D327">
         <v>0</v>
@@ -10800,7 +10803,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>326</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>108</v>
       </c>
       <c r="C328" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="D328">
         <v>0</v>
@@ -10821,7 +10824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>327</v>
       </c>
@@ -10830,19 +10833,19 @@
         <v>109</v>
       </c>
       <c r="C329" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="D329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E329">
         <v>0</v>
       </c>
       <c r="F329">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>328</v>
       </c>
@@ -10851,7 +10854,7 @@
         <v>109</v>
       </c>
       <c r="C330" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="D330">
         <v>0</v>
@@ -10863,7 +10866,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>329</v>
       </c>
@@ -10872,7 +10875,7 @@
         <v>109</v>
       </c>
       <c r="C331" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="D331">
         <v>0</v>
@@ -10884,7 +10887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>330</v>
       </c>
@@ -10893,19 +10896,19 @@
         <v>110</v>
       </c>
       <c r="C332" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E332">
         <v>0</v>
       </c>
       <c r="F332">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>331</v>
       </c>
@@ -10914,7 +10917,7 @@
         <v>110</v>
       </c>
       <c r="C333" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="D333">
         <v>0</v>
@@ -10926,7 +10929,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>332</v>
       </c>
@@ -10935,7 +10938,7 @@
         <v>110</v>
       </c>
       <c r="C334" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="D334">
         <v>0</v>
@@ -10947,7 +10950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>333</v>
       </c>
@@ -10956,7 +10959,7 @@
         <v>111</v>
       </c>
       <c r="C335" t="s">
-        <v>469</v>
+        <v>509</v>
       </c>
       <c r="D335">
         <v>0</v>
@@ -10968,7 +10971,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>334</v>
       </c>
@@ -10977,19 +10980,19 @@
         <v>111</v>
       </c>
       <c r="C336" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="D336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E336">
         <v>0</v>
       </c>
       <c r="F336">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>335</v>
       </c>
@@ -10998,7 +11001,7 @@
         <v>111</v>
       </c>
       <c r="C337" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="D337">
         <v>0</v>
@@ -11010,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>336</v>
       </c>
@@ -11019,19 +11022,19 @@
         <v>112</v>
       </c>
       <c r="C338" t="s">
-        <v>472</v>
+        <v>510</v>
       </c>
       <c r="D338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E338">
         <v>0</v>
       </c>
       <c r="F338">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>337</v>
       </c>
@@ -11040,7 +11043,7 @@
         <v>112</v>
       </c>
       <c r="C339" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="D339">
         <v>0</v>
@@ -11052,7 +11055,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>338</v>
       </c>
@@ -11061,7 +11064,7 @@
         <v>112</v>
       </c>
       <c r="C340" t="s">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="D340">
         <v>0</v>
@@ -11073,7 +11076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>339</v>
       </c>
@@ -11082,19 +11085,19 @@
         <v>113</v>
       </c>
       <c r="C341" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="D341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E341">
         <v>0</v>
       </c>
       <c r="F341">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>340</v>
       </c>
@@ -11103,7 +11106,7 @@
         <v>113</v>
       </c>
       <c r="C342" t="s">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="D342">
         <v>0</v>
@@ -11115,7 +11118,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>341</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>113</v>
       </c>
       <c r="C343" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="D343">
         <v>0</v>
@@ -11136,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>342</v>
       </c>
@@ -11145,19 +11148,19 @@
         <v>114</v>
       </c>
       <c r="C344" t="s">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E344">
         <v>0</v>
       </c>
       <c r="F344">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>343</v>
       </c>
@@ -11166,7 +11169,7 @@
         <v>114</v>
       </c>
       <c r="C345" t="s">
-        <v>477</v>
+        <v>515</v>
       </c>
       <c r="D345">
         <v>0</v>
@@ -11178,7 +11181,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>344</v>
       </c>
@@ -11187,7 +11190,7 @@
         <v>114</v>
       </c>
       <c r="C346" t="s">
-        <v>478</v>
+        <v>453</v>
       </c>
       <c r="D346">
         <v>0</v>
@@ -11199,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>345</v>
       </c>
@@ -11208,19 +11211,19 @@
         <v>115</v>
       </c>
       <c r="C347" t="s">
-        <v>479</v>
+        <v>454</v>
       </c>
       <c r="D347">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E347">
         <v>0</v>
       </c>
       <c r="F347">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>346</v>
       </c>
@@ -11229,7 +11232,7 @@
         <v>115</v>
       </c>
       <c r="C348" t="s">
-        <v>480</v>
+        <v>455</v>
       </c>
       <c r="D348">
         <v>0</v>
@@ -11241,7 +11244,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>347</v>
       </c>
@@ -11250,7 +11253,7 @@
         <v>115</v>
       </c>
       <c r="C349" t="s">
-        <v>481</v>
+        <v>456</v>
       </c>
       <c r="D349">
         <v>0</v>
@@ -11262,7 +11265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>348</v>
       </c>
@@ -11271,10 +11274,10 @@
         <v>116</v>
       </c>
       <c r="C350" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="D350">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E350">
         <v>0</v>
@@ -11283,7 +11286,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>349</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>116</v>
       </c>
       <c r="C351" t="s">
-        <v>483</v>
+        <v>457</v>
       </c>
       <c r="D351">
         <v>0</v>
@@ -11304,7 +11307,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>350</v>
       </c>
@@ -11313,7 +11316,7 @@
         <v>116</v>
       </c>
       <c r="C352" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="D352">
         <v>0</v>
@@ -11325,7 +11328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>351</v>
       </c>
@@ -11334,19 +11337,19 @@
         <v>117</v>
       </c>
       <c r="C353" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="D353">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E353">
         <v>0</v>
       </c>
       <c r="F353">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>352</v>
       </c>
@@ -11355,7 +11358,7 @@
         <v>117</v>
       </c>
       <c r="C354" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="D354">
         <v>0</v>
@@ -11367,7 +11370,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>353</v>
       </c>
@@ -11376,7 +11379,7 @@
         <v>117</v>
       </c>
       <c r="C355" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="D355">
         <v>0</v>
@@ -11388,7 +11391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>354</v>
       </c>
@@ -11397,7 +11400,7 @@
         <v>118</v>
       </c>
       <c r="C356" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="D356">
         <v>0</v>
@@ -11409,7 +11412,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>355</v>
       </c>
@@ -11418,19 +11421,19 @@
         <v>118</v>
       </c>
       <c r="C357" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E357">
         <v>0</v>
       </c>
       <c r="F357">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>356</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>118</v>
       </c>
       <c r="C358" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -11451,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>357</v>
       </c>
@@ -11460,19 +11463,19 @@
         <v>119</v>
       </c>
       <c r="C359" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="D359">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E359">
         <v>0</v>
       </c>
       <c r="F359">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>358</v>
       </c>
@@ -11481,7 +11484,7 @@
         <v>119</v>
       </c>
       <c r="C360" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
       <c r="D360">
         <v>0</v>
@@ -11493,7 +11496,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>359</v>
       </c>
@@ -11502,7 +11505,7 @@
         <v>119</v>
       </c>
       <c r="C361" t="s">
-        <v>493</v>
+        <v>461</v>
       </c>
       <c r="D361">
         <v>0</v>
@@ -11514,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>360</v>
       </c>
@@ -11523,19 +11526,19 @@
         <v>120</v>
       </c>
       <c r="C362" t="s">
-        <v>494</v>
+        <v>462</v>
       </c>
       <c r="D362">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E362">
         <v>0</v>
       </c>
       <c r="F362">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>361</v>
       </c>
@@ -11544,7 +11547,7 @@
         <v>120</v>
       </c>
       <c r="C363" t="s">
-        <v>495</v>
+        <v>463</v>
       </c>
       <c r="D363">
         <v>0</v>
@@ -11556,7 +11559,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>362</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>120</v>
       </c>
       <c r="C364" t="s">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="D364">
         <v>0</v>
@@ -11577,7 +11580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>363</v>
       </c>
@@ -11586,7 +11589,7 @@
         <v>121</v>
       </c>
       <c r="C365" t="s">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="D365">
         <v>0</v>
@@ -11598,7 +11601,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>364</v>
       </c>
@@ -11607,19 +11610,19 @@
         <v>121</v>
       </c>
       <c r="C366" t="s">
-        <v>498</v>
+        <v>523</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E366">
         <v>0</v>
       </c>
       <c r="F366">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>365</v>
       </c>
@@ -11628,7 +11631,7 @@
         <v>121</v>
       </c>
       <c r="C367" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="D367">
         <v>0</v>
@@ -11640,7 +11643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>366</v>
       </c>
@@ -11649,19 +11652,19 @@
         <v>122</v>
       </c>
       <c r="C368" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E368">
         <v>0</v>
       </c>
       <c r="F368">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>367</v>
       </c>
@@ -11670,7 +11673,7 @@
         <v>122</v>
       </c>
       <c r="C369" t="s">
-        <v>501</v>
+        <v>524</v>
       </c>
       <c r="D369">
         <v>0</v>
@@ -11682,7 +11685,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>368</v>
       </c>
@@ -11691,7 +11694,7 @@
         <v>122</v>
       </c>
       <c r="C370" t="s">
-        <v>502</v>
+        <v>525</v>
       </c>
       <c r="D370">
         <v>0</v>
@@ -11703,7 +11706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>369</v>
       </c>
@@ -11712,19 +11715,19 @@
         <v>123</v>
       </c>
       <c r="C371" t="s">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="D371">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E371">
         <v>0</v>
       </c>
       <c r="F371">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>370</v>
       </c>
@@ -11733,7 +11736,7 @@
         <v>123</v>
       </c>
       <c r="C372" t="s">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="D372">
         <v>0</v>
@@ -11745,7 +11748,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>371</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>123</v>
       </c>
       <c r="C373" t="s">
-        <v>505</v>
+        <v>470</v>
       </c>
       <c r="D373">
         <v>0</v>
@@ -11766,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>372</v>
       </c>
@@ -11775,19 +11778,19 @@
         <v>124</v>
       </c>
       <c r="C374" t="s">
-        <v>506</v>
+        <v>471</v>
       </c>
       <c r="D374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E374">
         <v>0</v>
       </c>
       <c r="F374">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>373</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>124</v>
       </c>
       <c r="C375" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="D375">
         <v>0</v>
@@ -11808,7 +11811,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>374</v>
       </c>
@@ -11817,7 +11820,7 @@
         <v>124</v>
       </c>
       <c r="C376" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="D376">
         <v>0</v>
@@ -11829,7 +11832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>375</v>
       </c>
@@ -11838,19 +11841,19 @@
         <v>125</v>
       </c>
       <c r="C377" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="D377">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E377">
         <v>0</v>
       </c>
       <c r="F377">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>376</v>
       </c>
@@ -11859,7 +11862,7 @@
         <v>125</v>
       </c>
       <c r="C378" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D378">
         <v>0</v>
@@ -11871,7 +11874,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>377</v>
       </c>
@@ -11880,7 +11883,7 @@
         <v>125</v>
       </c>
       <c r="C379" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="D379">
         <v>0</v>
@@ -11892,7 +11895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>378</v>
       </c>
@@ -11901,19 +11904,19 @@
         <v>126</v>
       </c>
       <c r="C380" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E380">
         <v>0</v>
       </c>
       <c r="F380">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>379</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>126</v>
       </c>
       <c r="C381" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="D381">
         <v>0</v>
@@ -11934,7 +11937,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>380</v>
       </c>
@@ -11943,7 +11946,7 @@
         <v>126</v>
       </c>
       <c r="C382" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="D382">
         <v>0</v>
@@ -11955,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>381</v>
       </c>
@@ -11964,19 +11967,19 @@
         <v>127</v>
       </c>
       <c r="C383" t="s">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="D383">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E383">
         <v>0</v>
       </c>
       <c r="F383">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>382</v>
       </c>
@@ -11985,7 +11988,7 @@
         <v>127</v>
       </c>
       <c r="C384" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="D384">
         <v>0</v>
@@ -11997,7 +12000,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>383</v>
       </c>
@@ -12006,7 +12009,7 @@
         <v>127</v>
       </c>
       <c r="C385" t="s">
-        <v>516</v>
+        <v>480</v>
       </c>
       <c r="D385">
         <v>0</v>
@@ -12018,7 +12021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>384</v>
       </c>
@@ -12027,19 +12030,19 @@
         <v>128</v>
       </c>
       <c r="C386" t="s">
-        <v>517</v>
+        <v>481</v>
       </c>
       <c r="D386">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E386">
         <v>0</v>
       </c>
       <c r="F386">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>385</v>
       </c>
@@ -12048,7 +12051,7 @@
         <v>128</v>
       </c>
       <c r="C387" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="D387">
         <v>0</v>
@@ -12060,7 +12063,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>386</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>128</v>
       </c>
       <c r="C388" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="D388">
         <v>0</v>
@@ -12081,7 +12084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>387</v>
       </c>
@@ -12090,19 +12093,19 @@
         <v>129</v>
       </c>
       <c r="C389" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="D389">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E389">
         <v>0</v>
       </c>
       <c r="F389">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>388</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>129</v>
       </c>
       <c r="C390" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="D390">
         <v>0</v>
@@ -12123,7 +12126,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>389</v>
       </c>
@@ -12132,7 +12135,7 @@
         <v>129</v>
       </c>
       <c r="C391" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="D391">
         <v>0</v>
@@ -12144,7 +12147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>390</v>
       </c>
@@ -12153,19 +12156,19 @@
         <v>130</v>
       </c>
       <c r="C392" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E392">
         <v>0</v>
       </c>
       <c r="F392">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>391</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="C393" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="D393">
         <v>0</v>
@@ -12186,7 +12189,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>392</v>
       </c>
@@ -12195,7 +12198,7 @@
         <v>130</v>
       </c>
       <c r="C394" t="s">
-        <v>521</v>
+        <v>483</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -12207,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>393</v>
       </c>
@@ -12216,19 +12219,19 @@
         <v>131</v>
       </c>
       <c r="C395" t="s">
-        <v>523</v>
+        <v>484</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395">
         <v>0</v>
       </c>
       <c r="F395">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>394</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>131</v>
       </c>
       <c r="C396" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D396">
         <v>0</v>
@@ -12249,7 +12252,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>395</v>
       </c>
@@ -12258,7 +12261,7 @@
         <v>131</v>
       </c>
       <c r="C397" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
       <c r="D397">
         <v>0</v>
@@ -12270,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>396</v>
       </c>
@@ -12279,19 +12282,19 @@
         <v>132</v>
       </c>
       <c r="C398" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="D398">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E398">
         <v>0</v>
       </c>
       <c r="F398">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>397</v>
       </c>
@@ -12300,7 +12303,7 @@
         <v>132</v>
       </c>
       <c r="C399" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="D399">
         <v>0</v>
@@ -12312,7 +12315,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>398</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>132</v>
       </c>
       <c r="C400" t="s">
-        <v>528</v>
+        <v>486</v>
       </c>
       <c r="D400">
         <v>0</v>
@@ -12333,7 +12336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>399</v>
       </c>
@@ -12342,19 +12345,19 @@
         <v>133</v>
       </c>
       <c r="C401" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="D401">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E401">
         <v>0</v>
       </c>
       <c r="F401">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>400</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>133</v>
       </c>
       <c r="C402" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="D402">
         <v>0</v>
@@ -12375,7 +12378,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>401</v>
       </c>
@@ -12384,7 +12387,7 @@
         <v>133</v>
       </c>
       <c r="C403" t="s">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="D403">
         <v>0</v>
@@ -12399,7 +12402,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C276" r:id="rId1" xr:uid="{65E565C6-5F7C-4E3F-B6E5-616248D41E10}"/>
+    <hyperlink ref="C276" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
